--- a/examples/17_blade_joint/outputs/blade_out.xlsx
+++ b/examples/17_blade_joint/outputs/blade_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1450"/>
+  <dimension ref="A1:D1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10493,7 +10493,7 @@
  [0.66614777 0.6700002  0.67712123 0.62072086 0.62727502 0.63245959
   0.63926867 0.64574535 0.64977998 0.65171232 0.65333451 0.65155042
   0.64924268 0.63950434 0.63444037 0.62711273 0.61986479 0.61356165
-  0.60742732 0.60199085 0.55805367 0.59311662 0.58936694 0.58623052
+  0.60742732 0.60199085 0.56037031 0.59311662 0.58936694 0.58623052
   0.58444769 0.58188815 0.57826958 0.57270573 0.57374879 0.59684729]
  [0.48905595 0.48893839 0.48796411 0.48706864 0.48668455 0.48576547
   0.48502104 0.48531088 0.48564258 0.4857924  0.48611936 0.48627169
@@ -10595,7 +10595,7 @@
  [0.72273926 0.72686687 0.73692268 0.68392783 0.69466754 0.70325628
   0.71188804 0.71980021 0.72485974 0.72743733 0.7296189  0.72912358
   0.72821111 0.72164078 0.72019359 0.71820211 0.71699693 0.71742121
-  0.7190506  0.72270791 0.76792909 0.73735997 0.74903991 0.76192904
+  0.7190506  0.72270791 0.77048234 0.73735997 0.74903991 0.76192904
   0.77438828 0.79040881 0.81299166 0.84716618 0.89494952 0.91659409]
  [0.51094271 0.51093158 0.51109232 0.51151394 0.51274861 0.51314609
   0.51310658 0.51395159 0.51467968 0.51507905 0.51562235 0.51627311
@@ -10792,57 +10792,91 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[[ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.    -0.8   -0.768 -0.736 -0.704 -0.672 -0.64  -0.608
-  -0.576 -0.544 -0.512 -0.48  -0.448 -0.416 -0.384 -0.352 -0.32  -0.288
-  -0.256 -0.224 -0.192 -0.16  -0.128 -0.096 -0.064 -0.032  0.     0.   ]
- [ 0.     0.     0.    -0.8   -0.768 -0.736 -0.704 -0.672 -0.64  -0.608
-  -0.576 -0.544 -0.512 -0.48  -0.448 -0.416 -0.384 -0.352 -0.32  -0.288
-  -0.256 -0.224 -0.192 -0.16  -0.128 -0.096 -0.064 -0.032  0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]
- [ 0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.
-   0.     0.     0.     0.     0.     0.     0.     0.     0.     0.   ]]</t>
+          <t>[[ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.         -0.8        -0.768      -0.736
+  -0.704      -0.672      -0.64       -0.608      -0.576      -0.544
+  -0.512      -0.48       -0.448      -0.416      -0.384      -0.352
+  -0.32       -0.288      -0.24119089 -0.224      -0.192      -0.16
+  -0.128      -0.096      -0.064      -0.032       0.          0.        ]
+ [ 0.          0.          0.         -0.8        -0.768      -0.736
+  -0.704      -0.672      -0.64       -0.608      -0.576      -0.544
+  -0.512      -0.48       -0.448      -0.416      -0.384      -0.352
+  -0.32       -0.288      -0.24119089 -0.224      -0.192      -0.16
+  -0.128      -0.096      -0.064      -0.032       0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -33727,15 +33761,325 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
+          <t>rotorse.rs.bjs.layer_end_nd_bjs</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr"/>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>[[1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.        ]
+ [1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.        ]
+ [0.22272986 0.22632952 0.22948212 0.30080193 0.31138242 0.32272784
+  0.33028459 0.33580147 0.33842316 0.33783338 0.33690305 0.33920465
+  0.34192828 0.35209392 0.35827412 0.36697208 0.37551861 0.38277512
+  0.38964944 0.39578046 0.43815618 0.40631466 0.41134025 0.41753853
+  0.41993132 0.42260813 0.42604197 0.43129105 0.43340579 0.41037074]
+ [0.72273926 0.72686687 0.73692268 0.68392783 0.69466754 0.70325628
+  0.71188804 0.71980021 0.72485974 0.72743733 0.7296189  0.72912358
+  0.72821111 0.72164078 0.72019359 0.71820211 0.71699693 0.71742121
+  0.7190506  0.72270791 0.77048234 0.73735997 0.74903991 0.76192904
+  0.77438828 0.79040881 0.81299166 0.84716618 0.89494952 0.91659409]
+ [0.51094271 0.51093158 0.51109232 0.51151394 0.51274861 0.51314609
+  0.51310658 0.51395159 0.51467968 0.51507905 0.51562235 0.51627311
+  0.5168142  0.51755755 0.51822809 0.51906037 0.51995391 0.52094453
+  0.52211804 0.52353357 0.52524289 0.52730935 0.52982516 0.53308866
+  0.53739617 0.54310325 0.54601304 0.54471542 0.54334969 0.54177825]
+ [0.04074588 0.04104707 0.0434308  0.04611344 0.04943663 0.05219928
+  0.0544146  0.05602713 0.05743132 0.05810475 0.05834802 0.05906711
+  0.05987781 0.06224915 0.0651135  0.06952397 0.07480996 0.07512292
+  0.07497596 0.07492002 0.07499306 0.07514177 0.07529579 0.07521149
+  0.06994391 0.06972475 0.06954861 0.06934638 0.06918735 0.06887597]
+ [0.16613836 0.16946286 0.16968068 0.23759495 0.2439899  0.25193115
+  0.25766523 0.26174662 0.2633434  0.26210837 0.26061866 0.2616315
+  0.26295985 0.26995749 0.2725209  0.27588271 0.27838647 0.27891556
+  0.27802616 0.2750634  0.2305961  0.26207131 0.25166728 0.23859669
+  0.22787547 0.21289915 0.19074836 0.15633559 0.10381686 0.08009451]
+ [0.48905595 0.48893839 0.48796411 0.48706864 0.48668455 0.48576547
+  0.48502104 0.48531088 0.48564258 0.4857924  0.48611936 0.48627169
+  0.48627317 0.48579129 0.48506303 0.48383156 0.48238805 0.48077685
+  0.47894774 0.47684624 0.47440403 0.47152324 0.46807164 0.4638829
+  0.45854522 0.4511866  0.44595877 0.44467843 0.44324233 0.44179699]
+ [0.66614777 0.6700002  0.67712123 0.62072086 0.62727502 0.63245959
+  0.63926867 0.64574535 0.64977998 0.65171232 0.65333451 0.65155042
+  0.64924268 0.63950434 0.63444037 0.62711273 0.61986479 0.61356165
+  0.60742732 0.60199085 0.55805367 0.59311662 0.58936694 0.58623052
+  0.58444769 0.58188815 0.57826958 0.57270573 0.57374879 0.59684729]
+ [0.95925412 0.95895293 0.9565692  0.95388656 0.95056337 0.94780072
+  0.9455854  0.94397287 0.94256868 0.94189525 0.94165198 0.94093289
+  0.94012219 0.93775085 0.9348865  0.93047603 0.92519004 0.92487708
+  0.92502404 0.92507998 0.92500694 0.92485823 0.92470421 0.92478851
+  0.93005609 0.93027525 0.93045139 0.93065362 0.93081265 0.93112403]
+ [1.         1.         1.         1.         1.         1.
+  1.         1.         1.         1.         1.         1.
+  1.         1.         1.         0.95       0.95       0.95
+  0.95       0.95       0.95       0.95       0.95       0.95
+  0.95       0.95       0.95       0.95       0.95       0.95      ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]]</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>2D array of the non-dimensional end point defined along the outer profile of a layer. The TE suction side is 0, the TE pressure side is 1. The first dimension represents each layer, the second dimension represents each entry along blade span.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>rotorse.rs.bjs.layer_start_nd_bjs</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>[[0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.16613836 0.16946286 0.16968068 0.23759495 0.2439899  0.25193115
+  0.25766523 0.26174662 0.2633434  0.26210837 0.26061866 0.2616315
+  0.26295985 0.26995749 0.2725209  0.27588271 0.27838647 0.27891556
+  0.27802616 0.2750634  0.22804415 0.26207131 0.25166728 0.23859669
+  0.22787547 0.21289915 0.19074836 0.15633559 0.10381686 0.08009451]
+ [0.66614777 0.6700002  0.67712123 0.62072086 0.62727502 0.63245959
+  0.63926867 0.64574535 0.64977998 0.65171232 0.65333451 0.65155042
+  0.64924268 0.63950434 0.63444037 0.62711273 0.61986479 0.61356165
+  0.60742732 0.60199085 0.56037031 0.59311662 0.58936694 0.58623052
+  0.58444769 0.58188815 0.57826958 0.57270573 0.57374879 0.59684729]
+ [0.48905595 0.48893839 0.48796411 0.48706864 0.48668455 0.48576547
+  0.48502104 0.48531088 0.48564258 0.4857924  0.48611936 0.48627169
+  0.48627317 0.48579129 0.48506303 0.48383156 0.48238805 0.48077685
+  0.47894774 0.47684624 0.47440403 0.47152324 0.46807164 0.4638829
+  0.45854522 0.4511866  0.44595877 0.44467843 0.44324233 0.44179699]
+ [0.95925412 0.95895293 0.9565692  0.95388656 0.95056337 0.94780072
+  0.9455854  0.94397287 0.94256868 0.94189525 0.94165198 0.94093289
+  0.94012219 0.93775085 0.9348865  0.93047603 0.92519004 0.92487708
+  0.92502404 0.92507998 0.92500694 0.92485823 0.92470421 0.92478851
+  0.93005609 0.93027525 0.93045139 0.93065362 0.93081265 0.93112403]
+ [0.04074588 0.04104707 0.0434308  0.04611344 0.04943663 0.05219928
+  0.0544146  0.05602713 0.05743132 0.05810475 0.05834802 0.05906711
+  0.05987781 0.06224915 0.0651135  0.06952397 0.07480996 0.07512292
+  0.07497596 0.07492002 0.07499306 0.07514177 0.07529579 0.07521149
+  0.06994391 0.06972475 0.06954861 0.06934638 0.06918735 0.06887597]
+ [0.22272986 0.22632952 0.22948212 0.30080193 0.31138242 0.32272784
+  0.33028459 0.33580147 0.33842316 0.33783338 0.33690305 0.33920465
+  0.34192828 0.35209392 0.35827412 0.36697208 0.37551861 0.38277512
+  0.38964944 0.39578046 0.44047152 0.40631466 0.41134025 0.41753853
+  0.41993132 0.42260813 0.42604197 0.43129105 0.43340579 0.41037074]
+ [0.51094271 0.51093158 0.51109232 0.51151394 0.51274861 0.51314609
+  0.51310658 0.51395159 0.51467968 0.51507905 0.51562235 0.51627311
+  0.5168142  0.51755755 0.51822809 0.51906037 0.51995391 0.52094453
+  0.52211804 0.52353357 0.52524289 0.52730935 0.52982516 0.53308866
+  0.53739617 0.54310325 0.54601304 0.54471542 0.54334969 0.54177825]
+ [0.72273926 0.72686687 0.73692268 0.68392783 0.69466754 0.70325628
+  0.71188804 0.71980021 0.72485974 0.72743733 0.7296189  0.72912358
+  0.72821111 0.72164078 0.72019359 0.71820211 0.71699693 0.71742121
+  0.7190506  0.72270791 0.76792909 0.73735997 0.74903991 0.76192904
+  0.77438828 0.79040881 0.81299166 0.84716618 0.89494952 0.91659409]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.05       0.05       0.05
+  0.05       0.05       0.05       0.05       0.05       0.05
+  0.05       0.05       0.04       0.05       0.05       0.05      ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]
+ [0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.
+  0.         0.         0.         0.         0.         0.        ]]</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>2D array of the non-dimensional start point defined along the outer profile of a layer. The TE suction side is 0, the TE pressure side is 1. The first dimension represents each layer, the second dimension represents each entry along blade span.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>rotorse.rs.bjs.layer_offset_y_bjs</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>[[ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.         -0.8        -0.768      -0.736
+  -0.704      -0.672      -0.64       -0.608      -0.576      -0.544
+  -0.512      -0.48       -0.448      -0.416      -0.384      -0.352
+  -0.32       -0.288      -0.24119089 -0.224      -0.192      -0.16
+  -0.128      -0.096      -0.064      -0.032       0.          0.        ]
+ [ 0.          0.          0.         -0.8        -0.768      -0.736
+  -0.704      -0.672      -0.64       -0.608      -0.576      -0.544
+  -0.512      -0.48       -0.448      -0.416      -0.384      -0.352
+  -0.32       -0.288      -0.24119089 -0.224      -0.192      -0.16
+  -0.128      -0.096      -0.064      -0.032       0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.
+   0.          0.          0.          0.          0.          0.        ]]</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>2D array of the offset along the y axis to set the position of a layer. Positive values move the layer towards the trailing edge, negative values towards the leading edge. The first dimension represents each layer, the second dimension represents each entry along blade span.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
           <t>rotorse.rc.sect_perimeter</t>
         </is>
       </c>
-      <c r="B1235" t="inlineStr">
+      <c r="B1238" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1235" t="inlineStr">
+      <c r="C1238" t="inlineStr">
         <is>
           <t>[14.13639991 14.067995   13.37760306 12.65683147 11.87075318 11.29996378
  11.01634508 10.8028031  10.65533525 10.56454047 10.48707403 10.31284639
@@ -33744,24 +34088,24 @@
   3.92385851  3.36609329  2.79948094  2.22217811  1.63324664  1.03519409]</t>
         </is>
       </c>
-      <c r="D1235" t="inlineStr">
+      <c r="D1238" t="inlineStr">
         <is>
           <t>Perimeter of the section along the blade span</t>
         </is>
       </c>
     </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
         <is>
           <t>rotorse.rc.layer_volume</t>
         </is>
       </c>
-      <c r="B1236" t="inlineStr">
+      <c r="B1239" t="inlineStr">
         <is>
           <t>m**3</t>
         </is>
       </c>
-      <c r="C1236" t="inlineStr">
+      <c r="C1239" t="inlineStr">
         <is>
           <t>[  0.81891207   8.1331339    2.60996631   2.60655155   0.37027748
  -16.82621162   4.88719963   2.13683815   2.40549864   9.28673178
@@ -33769,243 +34113,177 @@
    1.96811402   0.14821459]</t>
         </is>
       </c>
-      <c r="D1236" t="inlineStr">
+      <c r="D1239" t="inlineStr">
         <is>
           <t>Volumes of each layer used in the blade, ignoring the scrap factor</t>
         </is>
       </c>
     </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_volume</t>
         </is>
       </c>
-      <c r="B1237" t="inlineStr">
+      <c r="B1240" t="inlineStr">
         <is>
           <t>m**3</t>
         </is>
       </c>
-      <c r="C1237" t="inlineStr">
+      <c r="C1240" t="inlineStr">
         <is>
           <t>[  0.81891207   0.         -16.45593414   5.21651786   0.40984714
   16.04981419  21.42926724   0.           0.           0.        ]</t>
         </is>
       </c>
-      <c r="D1237" t="inlineStr">
+      <c r="D1240" t="inlineStr">
         <is>
           <t>Volumes of each material used in the blade, ignoring the scrap factor. For laminates, this is the wet volume</t>
         </is>
       </c>
     </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_mass</t>
         </is>
       </c>
-      <c r="B1238" t="inlineStr">
+      <c r="B1241" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="C1238" t="inlineStr">
+      <c r="C1241" t="inlineStr">
         <is>
           <t>[  1011.35640166    287.68539615 -31924.51223611   8346.42856916
     795.10345651  31136.63952099   2785.80474148      0.
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1238" t="inlineStr">
+      <c r="D1241" t="inlineStr">
         <is>
           <t>Masses of each material used in the blade, ignoring the scrap factor. For laminates, this is the wet mass.</t>
         </is>
       </c>
     </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_cost</t>
         </is>
       </c>
-      <c r="B1239" t="inlineStr">
+      <c r="B1242" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1239" t="inlineStr">
+      <c r="C1242" t="inlineStr">
         <is>
           <t>[  7312.10678398   2079.96541418 -44479.70983959 130531.72249204
    1777.21906957  66348.91729222  36215.46163926   6707.10789424
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1239" t="inlineStr">
+      <c r="D1242" t="inlineStr">
         <is>
           <t>Costs of each material used in the blade, ignoring the scrap factor. For laminates, this is the cost of the dry fabric.</t>
         </is>
       </c>
     </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
         <is>
           <t>rotorse.rc.mat_cost_scrap</t>
         </is>
       </c>
-      <c r="B1240" t="inlineStr">
+      <c r="B1243" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1240" t="inlineStr">
+      <c r="C1243" t="inlineStr">
         <is>
           <t>[  9140.13347997   2079.96541418 -46703.69533157 137058.30861664
    2043.80193001  76301.25488605  43458.55396712   6707.10789424
       0.              0.        ]</t>
         </is>
       </c>
-      <c r="D1240" t="inlineStr">
+      <c r="D1243" t="inlineStr">
         <is>
           <t>Same as mat_cost, now including the scrap factor.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>rotorse.rc.total_labor_hours</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>[2219.79769119]</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>Total amount of labor hours per blade.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>rotorse.rc.total_skin_mold_gating_ct</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>[23.9999]</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>Total amount of gating cycle time per blade. This is the cycle time required in the main mold that cannot be parallelized unless the number of molds is increased.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>rotorse.rc.total_non_gating_ct</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>[225.31382467]</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>Total amount of non-gating cycle time per blade. This cycle time can happen in parallel.</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_metallic_parts_cost</t>
+          <t>rotorse.rc.total_labor_hours</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>[7659.72250862]</t>
+          <t>[2219.79769119]</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>Cost of the metallic parts (bolts, nuts, lightining protection system), excluding the blade joint.</t>
+          <t>Total amount of labor hours per blade.</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_consumable_cost_w_waste</t>
+          <t>rotorse.rc.total_skin_mold_gating_ct</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>[12277.79509043]</t>
+          <t>[23.9999]</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>Cost of the consumables including the waste.</t>
+          <t>Total amount of gating cycle time per blade. This is the cycle time required in the main mold that cannot be parallelized unless the number of molds is increased.</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_blade_mat_cost_w_waste</t>
+          <t>rotorse.rc.total_non_gating_ct</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>[300022.94845568]</t>
+          <t>[225.31382467]</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>Total blade material costs including the waste per blade.</t>
+          <t>Total amount of non-gating cycle time per blade. This cycle time can happen in parallel.</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_labor</t>
+          <t>rotorse.rc.total_metallic_parts_cost</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -34015,19 +34293,19 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>[75004.07317398]</t>
+          <t>[7659.72250862]</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>Total labor costs per blade.</t>
+          <t>Cost of the metallic parts (bolts, nuts, lightining protection system), excluding the blade joint.</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_utility</t>
+          <t>rotorse.rc.total_consumable_cost_w_waste</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -34037,19 +34315,19 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>[1193.92414167]</t>
+          <t>[12277.79509043]</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>Total utility costs per blade.</t>
+          <t>Cost of the consumables including the waste.</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>rotorse.rc.blade_variable_cost</t>
+          <t>rotorse.rc.total_blade_mat_cost_w_waste</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -34059,19 +34337,19 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>[376220.94577133]</t>
+          <t>[300022.94845568]</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>Total blade variable costs per blade (material, labor, utility).</t>
+          <t>Total blade material costs including the waste per blade.</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_equipment</t>
+          <t>rotorse.rc.total_cost_labor</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -34081,19 +34359,19 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>[14502.21171604]</t>
+          <t>[75004.07317398]</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>Total equipment cost per blade.</t>
+          <t>Total labor costs per blade.</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_tooling</t>
+          <t>rotorse.rc.total_cost_utility</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -34103,19 +34381,19 @@
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>[22109.58797565]</t>
+          <t>[1193.92414167]</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>Total tooling cost per blade.</t>
+          <t>Total utility costs per blade.</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_cost_building</t>
+          <t>rotorse.rc.blade_variable_cost</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -34125,19 +34403,19 @@
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>[1429.35648343]</t>
+          <t>[376220.94577133]</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>Total builting cost per blade.</t>
+          <t>Total blade variable costs per blade (material, labor, utility).</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_maintenance_cost</t>
+          <t>rotorse.rc.total_cost_equipment</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
@@ -34147,19 +34425,19 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>[11053.64654264]</t>
+          <t>[14502.21171604]</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>Total maintenance cost per blade.</t>
+          <t>Total equipment cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_labor_overhead</t>
+          <t>rotorse.rc.total_cost_tooling</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -34169,19 +34447,19 @@
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>[22501.22195219]</t>
+          <t>[22109.58797565]</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>Total labor overhead cost per blade.</t>
+          <t>Total tooling cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>rotorse.rc.cost_capital</t>
+          <t>rotorse.rc.total_cost_building</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
@@ -34191,19 +34469,19 @@
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>[23237.07493713]</t>
+          <t>[1429.35648343]</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>Cost of capital per blade.</t>
+          <t>Total builting cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>rotorse.rc.blade_fixed_cost</t>
+          <t>rotorse.rc.total_maintenance_cost</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
@@ -34213,19 +34491,19 @@
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>[94833.09960709]</t>
+          <t>[11053.64654264]</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>Total blade fixed cost per blade (equipment, tooling, building, maintenance, labor, capital).</t>
+          <t>Total maintenance cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>rotorse.rc.total_blade_cost</t>
+          <t>rotorse.rc.total_labor_overhead</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
@@ -34235,73 +34513,85 @@
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>[471054.04537842]</t>
+          <t>[22501.22195219]</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>Total blade cost (variable and fixed)</t>
+          <t>Total labor overhead cost per blade.</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>drivese.hub_E</t>
+          <t>rotorse.rc.cost_capital</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>[2.1e+11]</t>
-        </is>
-      </c>
-      <c r="D1258" t="inlineStr"/>
+          <t>[23237.07493713]</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>Cost of capital per blade.</t>
+        </is>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>drivese.hub_G</t>
+          <t>rotorse.rc.blade_fixed_cost</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>[6.5625e+10]</t>
-        </is>
-      </c>
-      <c r="D1259" t="inlineStr"/>
+          <t>[94833.09960709]</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>Total blade fixed cost per blade (equipment, tooling, building, maintenance, labor, capital).</t>
+        </is>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>drivese.hub_rho</t>
+          <t>rotorse.rc.total_blade_cost</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>[8500.]</t>
-        </is>
-      </c>
-      <c r="D1260" t="inlineStr"/>
+          <t>[471054.04537842]</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>Total blade cost (variable and fixed)</t>
+        </is>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>drivese.hub_Xy</t>
+          <t>drivese.hub_E</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -34311,7 +34601,7 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>[4.5e+08]</t>
+          <t>[2.1e+11]</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
@@ -34319,13 +34609,17 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>drivese.hub_wohler_exp</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
+          <t>drivese.hub_G</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[6.5625e+10]</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr"/>
@@ -34333,13 +34627,17 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>drivese.hub_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
+          <t>drivese.hub_rho</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>kg/m**3</t>
+        </is>
+      </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[8500.]</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
@@ -34347,17 +34645,17 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>drivese.hub_mat_cost</t>
+          <t>drivese.hub_Xy</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[4.5e+08]</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
@@ -34365,17 +34663,13 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>drivese.spinner_rho</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+          <t>drivese.hub_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr"/>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>[1940.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
@@ -34383,17 +34677,13 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>drivese.spinner_Xt</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
+          <t>drivese.hub_wohler_A</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr"/>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>[46210000.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
@@ -34401,7 +34691,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>drivese.spinner_mat_cost</t>
+          <t>drivese.hub_mat_cost</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
@@ -34411,7 +34701,7 @@
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>[3.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
@@ -34419,17 +34709,17 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>drivese.lss_Xt</t>
+          <t>drivese.spinner_rho</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[1940.]</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
@@ -34437,13 +34727,17 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>drivese.lss_wohler_exp</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
+          <t>drivese.spinner_Xt</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[46210000.]</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
@@ -34451,13 +34745,17 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>drivese.lss_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
+          <t>drivese.spinner_mat_cost</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
@@ -34465,17 +34763,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>drivese.lss_cost</t>
+          <t>drivese.lss_Xt</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -34483,17 +34781,13 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>drivese.hss_Xt</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
+          <t>drivese.lss_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr"/>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
@@ -34501,13 +34795,13 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>drivese.hss_wohler_exp</t>
+          <t>drivese.lss_wohler_A</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -34515,13 +34809,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>drivese.hss_wohler_A</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
+          <t>drivese.lss_cost</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>[3.6e+08]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -34529,17 +34827,17 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>drivese.hss_cost</t>
+          <t>drivese.hss_Xt</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
@@ -34547,17 +34845,13 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>drivese.bedplate_mat_cost</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
+          <t>drivese.hss_wohler_exp</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr"/>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
@@ -34565,17 +34859,13 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>drivese.constr_hub_diameter</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>drivese.hss_wohler_A</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr"/>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>[-0.23538291]</t>
+          <t>[3.6e+08]</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
@@ -34583,17 +34873,17 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>drivese.spinner.spinner_diameter</t>
+          <t>drivese.hss_cost</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>[7.5]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
@@ -34601,17 +34891,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>drivese.hub_system_cost</t>
+          <t>drivese.bedplate_mat_cost</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>[6525.81089873]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -34619,13 +34909,17 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>drivese.stage_ratios</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
+          <t>drivese.constr_hub_diameter</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>[3.39701589 3.21947225 8.84735695]</t>
+          <t>[-0.23538291]</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
@@ -34633,7 +34927,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>drivese.D_gearbox</t>
+          <t>drivese.spinner.spinner_diameter</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
@@ -34643,7 +34937,7 @@
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>[2.3175]</t>
+          <t>[7.5]</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
@@ -34651,17 +34945,17 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>drivese.L_lss</t>
+          <t>drivese.hub_system_cost</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>[3.1]</t>
+          <t>[6525.81089873]</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
@@ -34669,17 +34963,13 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>drivese.constr_length</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>drivese.stage_ratios</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr"/>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>[2.27743025]</t>
+          <t>[3.39701589 3.21947225 8.84735695]</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
@@ -34687,17 +34977,17 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_max_defl_ang</t>
+          <t>drivese.D_gearbox</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>[0.00872665]</t>
+          <t>[2.3175]</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
@@ -34705,17 +34995,17 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_mass</t>
+          <t>drivese.L_lss</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>[1480.55356999]</t>
+          <t>[3.1]</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
@@ -34723,17 +35013,17 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>drivese.bear1.mb_I</t>
+          <t>drivese.constr_length</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>[134.02030141  70.60698288  70.60698288]</t>
+          <t>[2.27743025]</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
@@ -34741,7 +35031,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_max_defl_ang</t>
+          <t>drivese.bear1.mb_max_defl_ang</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
@@ -34751,7 +35041,7 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>[0.078]</t>
+          <t>[0.00872665]</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
@@ -34759,7 +35049,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_mass</t>
+          <t>drivese.bear1.mb_mass</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
@@ -34769,7 +35059,7 @@
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>[1349.62411874]</t>
+          <t>[1480.55356999]</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
@@ -34777,7 +35067,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>drivese.bear2.mb_I</t>
+          <t>drivese.bear1.mb_I</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
@@ -34787,7 +35077,7 @@
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>[118.75932276  61.52201828  61.52201828]</t>
+          <t>[134.02030141  70.60698288  70.60698288]</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr"/>
@@ -34795,15 +35085,69 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
+          <t>drivese.bear2.mb_max_defl_ang</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>[0.078]</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>drivese.bear2.mb_mass</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>[1349.62411874]</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>drivese.bear2.mb_I</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>kg*m**2</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>[118.75932276  61.52201828  61.52201828]</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
           <t>drivese.hss_rpm</t>
         </is>
       </c>
-      <c r="B1290" t="inlineStr">
+      <c r="B1293" t="inlineStr">
         <is>
           <t>rpm</t>
         </is>
       </c>
-      <c r="C1290" t="inlineStr">
+      <c r="C1293" t="inlineStr">
         <is>
           <t>[  9.676       49.36699606  89.05799213 128.74898819 168.43998425
  208.13098031 247.82197638 287.51297244 327.2039685  366.89496456
@@ -34811,91 +35155,37 @@
  605.04094094 644.731937   684.42293306 724.11392913 763.80492519]</t>
         </is>
       </c>
-      <c r="D1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
+      <c r="D1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
         <is>
           <t>drivese.generator_efficiency</t>
         </is>
       </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr">
+      <c r="B1294" t="inlineStr"/>
+      <c r="C1294" t="inlineStr">
         <is>
           <t>[0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95 0.95
  0.95 0.95 0.95 0.95 0.95 0.95]</t>
         </is>
       </c>
-      <c r="D1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>drivese.mean_bearing_mass</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr">
-        <is>
-          <t>[1415.08884437]</t>
-        </is>
-      </c>
-      <c r="D1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>drivese.total_bedplate_mass</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr">
-        <is>
-          <t>[30830.43254124]</t>
-        </is>
-      </c>
-      <c r="D1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>drivese.above_yaw_mass</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1294" t="inlineStr">
-        <is>
-          <t>[214978.26565397]</t>
-        </is>
-      </c>
       <c r="D1294" t="inlineStr"/>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>drivese.above_yaw_cm</t>
+          <t>drivese.mean_bearing_mass</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>[ 0.07963657 -0.1461323   1.50209284]</t>
+          <t>[1415.08884437]</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr"/>
@@ -34903,181 +35193,235 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
+          <t>drivese.total_bedplate_mass</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>[30830.43254124]</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>drivese.above_yaw_mass</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>[214978.26565397]</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>drivese.above_yaw_cm</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>[ 0.07963657 -0.1461323   1.50209284]</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
           <t>drivese.nacelle_I</t>
         </is>
       </c>
-      <c r="B1296" t="inlineStr">
+      <c r="B1299" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1296" t="inlineStr">
+      <c r="C1299" t="inlineStr">
         <is>
           <t>[1063408.96931857 1571762.89300829 2138337.28261031   -2314.28703775
   -67464.44210134    4884.86169794]</t>
         </is>
       </c>
-      <c r="D1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
+      <c r="D1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
         <is>
           <t>drivese.above_yaw_I</t>
         </is>
       </c>
-      <c r="B1297" t="inlineStr">
+      <c r="B1300" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1297" t="inlineStr">
+      <c r="C1300" t="inlineStr">
         <is>
           <t>[ 1.02670889e+06  1.53530471e+06  2.13789100e+06 -2.50180429e+03
  -6.55369537e+04  1.34793993e+03]</t>
         </is>
       </c>
-      <c r="D1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
+      <c r="D1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
         <is>
           <t>drivese.above_yaw_I_TT</t>
         </is>
       </c>
-      <c r="B1298" t="inlineStr">
+      <c r="B1301" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1298" t="inlineStr">
+      <c r="C1301" t="inlineStr">
         <is>
           <t>[1516351.45655524 2021719.88560007 2143845.17478853       0.
   -91252.98097583   48536.59100423]</t>
         </is>
       </c>
-      <c r="D1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>drivese.rotor_mass</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr">
-        <is>
-          <t>[192415.38123754]</t>
-        </is>
-      </c>
-      <c r="D1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>drivese.rna_mass</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr">
-        <is>
-          <t>[426497.96501569]</t>
-        </is>
-      </c>
-      <c r="D1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>drivese.rna_cm</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr">
-        <is>
-          <t>[-5.29133061 -0.07365866  2.10349034]</t>
-        </is>
-      </c>
       <c r="D1301" t="inlineStr"/>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
+          <t>drivese.rotor_mass</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>[192415.38123754]</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>drivese.rna_mass</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>[426497.96501569]</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>drivese.rna_cm</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>[-5.29133061 -0.07365866  2.10349034]</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
           <t>drivese.rna_I_TT</t>
         </is>
       </c>
-      <c r="B1302" t="inlineStr">
+      <c r="B1305" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1302" t="inlineStr">
+      <c r="C1305" t="inlineStr">
         <is>
           <t>[ 2.41508977e+08  1.50074098e+08  1.49066771e+08 -1.66639598e+01
  -1.61340545e+06  4.82222779e+04]</t>
         </is>
       </c>
-      <c r="D1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
+      <c r="D1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
         <is>
           <t>drivese.torq_deflection</t>
         </is>
       </c>
-      <c r="B1303" t="inlineStr">
+      <c r="B1306" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1303" t="inlineStr">
+      <c r="C1306" t="inlineStr">
         <is>
           <t>[0.00199315]</t>
         </is>
       </c>
-      <c r="D1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
+      <c r="D1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
         <is>
           <t>drivese.torq_rotation</t>
         </is>
       </c>
-      <c r="B1304" t="inlineStr">
+      <c r="B1307" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="C1304" t="inlineStr">
+      <c r="C1307" t="inlineStr">
         <is>
           <t>[2.97932014e-06]</t>
         </is>
       </c>
-      <c r="D1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
+      <c r="D1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
         <is>
           <t>drivese.lss_axial_stress</t>
         </is>
       </c>
-      <c r="B1305" t="inlineStr">
+      <c r="B1308" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1305" t="inlineStr">
+      <c r="C1308" t="inlineStr">
         <is>
           <t>[[3.79442275e+06]
  [2.30775037e+08]
@@ -35085,20 +35429,20 @@
  [2.53567350e+08]]</t>
         </is>
       </c>
-      <c r="D1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
+      <c r="D1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
         <is>
           <t>drivese.lss_shear_stress</t>
         </is>
       </c>
-      <c r="B1306" t="inlineStr">
+      <c r="B1309" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1306" t="inlineStr">
+      <c r="C1309" t="inlineStr">
         <is>
           <t>[[1.00720901e+09]
  [1.00811611e+09]
@@ -35106,16 +35450,16 @@
  [1.00440637e+09]]</t>
         </is>
       </c>
-      <c r="D1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
+      <c r="D1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
         <is>
           <t>drivese.constr_lss_vonmises</t>
         </is>
       </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr">
+      <c r="B1310" t="inlineStr"/>
+      <c r="C1310" t="inlineStr">
         <is>
           <t>[[6.80371107]
  [6.86904089]
@@ -35123,184 +35467,130 @@
  [6.85645388]]</t>
         </is>
       </c>
-      <c r="D1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
+      <c r="D1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
         <is>
           <t>drivese.lss_axial_load2stress</t>
         </is>
       </c>
-      <c r="B1308" t="inlineStr">
+      <c r="B1311" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1308" t="inlineStr">
+      <c r="C1311" t="inlineStr">
         <is>
           <t>[ 3.82436907  0.          0.          0.         53.02402191 53.02402191]</t>
         </is>
       </c>
-      <c r="D1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
+      <c r="D1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
         <is>
           <t>drivese.lss_shear_load2stress</t>
         </is>
       </c>
-      <c r="B1309" t="inlineStr">
+      <c r="B1312" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1309" t="inlineStr">
+      <c r="C1312" t="inlineStr">
         <is>
           <t>[ 0.          4.29987073  4.29987073 26.51201095  0.          0.        ]</t>
         </is>
       </c>
-      <c r="D1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
+      <c r="D1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
         <is>
           <t>drivese.hss_axial_stress</t>
         </is>
       </c>
-      <c r="B1310" t="inlineStr">
+      <c r="B1313" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1310" t="inlineStr">
+      <c r="C1313" t="inlineStr">
         <is>
           <t>[[7.39868557e+05]
  [1.59680502e-02]]</t>
         </is>
       </c>
-      <c r="D1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
+      <c r="D1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
         <is>
           <t>drivese.hss_shear_stress</t>
         </is>
       </c>
-      <c r="B1311" t="inlineStr">
+      <c r="B1314" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1311" t="inlineStr">
+      <c r="C1314" t="inlineStr">
         <is>
           <t>[[86122522.04148784]
  [83221435.68211088]]</t>
         </is>
       </c>
-      <c r="D1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
+      <c r="D1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
         <is>
           <t>drivese.hss_bending_stress</t>
         </is>
       </c>
-      <c r="B1312" t="inlineStr">
+      <c r="B1315" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1312" t="inlineStr">
+      <c r="C1315" t="inlineStr">
         <is>
           <t>[[0.]
  [0.]]</t>
         </is>
       </c>
-      <c r="D1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
+      <c r="D1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
         <is>
           <t>drivese.constr_hss_vonmises</t>
         </is>
       </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr">
+      <c r="B1316" t="inlineStr"/>
+      <c r="C1316" t="inlineStr">
         <is>
           <t>[[0.58176463]
  [0.56216064]]</t>
         </is>
       </c>
-      <c r="D1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>drivese.mb1_deflection</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr">
-        <is>
-          <t>[0.00014917]</t>
-        </is>
-      </c>
-      <c r="D1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>drivese.mb2_deflection</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr">
-        <is>
-          <t>[9.57381607e-05]</t>
-        </is>
-      </c>
-      <c r="D1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>drivese.bedplate_deflection</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr">
-        <is>
-          <t>[0.00012749]</t>
-        </is>
-      </c>
       <c r="D1316" t="inlineStr"/>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>drivese.mb1_rotation</t>
+          <t>drivese.mb1_deflection</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>[4.39785466e-05]</t>
+          <t>[0.00014917]</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr"/>
@@ -35308,17 +35598,17 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>drivese.mb2_rotation</t>
+          <t>drivese.mb2_deflection</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>[5.47627021e-05]</t>
+          <t>[9.57381607e-05]</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr"/>
@@ -35326,17 +35616,17 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>drivese.bedplate_rotation</t>
+          <t>drivese.bedplate_deflection</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>rad</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>[7.35566767e-05]</t>
+          <t>[0.00012749]</t>
         </is>
       </c>
       <c r="D1319" t="inlineStr"/>
@@ -35344,55 +35634,109 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
+          <t>drivese.mb1_rotation</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>[4.39785466e-05]</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>drivese.mb2_rotation</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>[5.47627021e-05]</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>drivese.bedplate_rotation</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>[7.35566767e-05]</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
           <t>drivese.base_F</t>
         </is>
       </c>
-      <c r="B1320" t="inlineStr">
+      <c r="B1323" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1320" t="inlineStr">
+      <c r="C1323" t="inlineStr">
         <is>
           <t>[[ 2199361.57409122]
  [   41405.88733564]
  [-2481923.0433685 ]]</t>
         </is>
       </c>
-      <c r="D1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
+      <c r="D1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
         <is>
           <t>drivese.base_M</t>
         </is>
       </c>
-      <c r="B1321" t="inlineStr">
+      <c r="B1324" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1321" t="inlineStr">
+      <c r="C1324" t="inlineStr">
         <is>
           <t>[[15682220.23316733]
  [ 2112160.44354895]
  [ 1127332.17801185]]</t>
         </is>
       </c>
-      <c r="D1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
+      <c r="D1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
         <is>
           <t>drivese.bedplate_axial_stress</t>
         </is>
       </c>
-      <c r="B1322" t="inlineStr">
+      <c r="B1325" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1322" t="inlineStr">
+      <c r="C1325" t="inlineStr">
         <is>
           <t>[[6.27376443e+04]
  [8.24470677e+05]
@@ -35418,20 +35762,20 @@
  [1.48457804e+00]]</t>
         </is>
       </c>
-      <c r="D1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
+      <c r="D1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
         <is>
           <t>drivese.bedplate_shear_stress</t>
         </is>
       </c>
-      <c r="B1323" t="inlineStr">
+      <c r="B1326" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1323" t="inlineStr">
+      <c r="C1326" t="inlineStr">
         <is>
           <t>[[3.16205246e+05]
  [6.54098817e+05]
@@ -35457,20 +35801,20 @@
  [3.87318715e+00]]</t>
         </is>
       </c>
-      <c r="D1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
+      <c r="D1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
         <is>
           <t>drivese.bedplate_bending_stress</t>
         </is>
       </c>
-      <c r="B1324" t="inlineStr">
+      <c r="B1327" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1324" t="inlineStr">
+      <c r="C1327" t="inlineStr">
         <is>
           <t>[[0.]
  [0.]
@@ -35496,16 +35840,16 @@
  [0.]]</t>
         </is>
       </c>
-      <c r="D1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
+      <c r="D1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
         <is>
           <t>drivese.constr_bedplate_vonmises</t>
         </is>
       </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr">
+      <c r="B1328" t="inlineStr"/>
+      <c r="C1328" t="inlineStr">
         <is>
           <t>[[2.14993416e-03]
  [5.46457735e-03]
@@ -35531,68 +35875,18 @@
  [2.67963514e-08]]</t>
         </is>
       </c>
-      <c r="D1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>drivese.constr_mb1_defl</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>[0.00503957]</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>drivese.constr_mb2_defl</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr">
-        <is>
-          <t>[0.00070209]</t>
-        </is>
-      </c>
-      <c r="D1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>drivese.drivetrain_spring_constant</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>N*m/rad</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr">
-        <is>
-          <t>[2.30170307e+08]</t>
-        </is>
-      </c>
       <c r="D1328" t="inlineStr"/>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>drivese.drivetrain_damping_coefficient</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>N*m*s/rad</t>
-        </is>
-      </c>
+          <t>drivese.constr_mb1_defl</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr"/>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>[2344764.89962588]</t>
+          <t>[0.00503957]</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr"/>
@@ -35600,431 +35894,481 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
+          <t>drivese.constr_mb2_defl</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>[0.00070209]</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>drivese.drivetrain_spring_constant</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>N*m/rad</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>[2.30170307e+08]</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>drivese.drivetrain_damping_coefficient</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>N*m*s/rad</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>[2344764.89962588]</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
           <t>towerse.sigma_ult</t>
         </is>
       </c>
-      <c r="B1330" t="inlineStr">
+      <c r="B1333" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="C1330" t="inlineStr">
+      <c r="C1333" t="inlineStr">
         <is>
           <t>[3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08
  3.6e+08]</t>
         </is>
       </c>
-      <c r="D1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
+      <c r="D1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
         <is>
           <t>towerse.wohler_exp</t>
         </is>
       </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr">
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr">
         <is>
           <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
-      <c r="D1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
+      <c r="D1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
         <is>
           <t>towerse.wohler_A</t>
         </is>
       </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr">
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr">
         <is>
           <t>[3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08 3.6e+08
  3.6e+08]</t>
         </is>
       </c>
-      <c r="D1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
+      <c r="D1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
         <is>
           <t>towerse.z_start</t>
         </is>
       </c>
-      <c r="B1333" t="inlineStr">
+      <c r="B1336" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1333" t="inlineStr">
+      <c r="C1336" t="inlineStr">
         <is>
           <t>[0.]</t>
         </is>
       </c>
-      <c r="D1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
+      <c r="D1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
         <is>
           <t>towerse.height_constraint</t>
         </is>
       </c>
-      <c r="B1334" t="inlineStr">
+      <c r="B1337" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1334" t="inlineStr">
+      <c r="C1337" t="inlineStr">
         <is>
           <t>[3.]</t>
         </is>
       </c>
-      <c r="D1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
+      <c r="D1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
         <is>
           <t>towerse.unit_cost_full</t>
         </is>
       </c>
-      <c r="B1335" t="inlineStr">
+      <c r="B1338" t="inlineStr">
         <is>
           <t>USD/kg</t>
         </is>
       </c>
-      <c r="C1335" t="inlineStr">
+      <c r="C1338" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
+      <c r="D1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
         <is>
           <t>towerse.outfitting_full</t>
         </is>
       </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr">
+      <c r="B1339" t="inlineStr"/>
+      <c r="C1339" t="inlineStr">
         <is>
           <t>[1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07
  1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07 1.07
  1.07 1.07]</t>
         </is>
       </c>
-      <c r="D1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
+      <c r="D1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
         <is>
           <t>towerse.sec_loc</t>
         </is>
       </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr">
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr">
         <is>
           <t>[0.         0.11111111 0.22222222 0.33333333 0.44444444 0.55555556
  0.66666667 0.77777778 0.88888889 1.        ]</t>
         </is>
       </c>
-      <c r="D1337" t="inlineStr">
+      <c r="D1340" t="inlineStr">
         <is>
           <t>normalized sectional location</t>
         </is>
       </c>
     </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
         <is>
           <t>towerse.str_tw</t>
         </is>
       </c>
-      <c r="B1338" t="inlineStr">
+      <c r="B1341" t="inlineStr">
         <is>
           <t>deg</t>
         </is>
       </c>
-      <c r="C1338" t="inlineStr">
+      <c r="C1341" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1338" t="inlineStr">
+      <c r="D1341" t="inlineStr">
         <is>
           <t>structural twist of section</t>
         </is>
       </c>
     </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
         <is>
           <t>towerse.tw_iner</t>
         </is>
       </c>
-      <c r="B1339" t="inlineStr">
+      <c r="B1342" t="inlineStr">
         <is>
           <t>deg</t>
         </is>
       </c>
-      <c r="C1339" t="inlineStr">
+      <c r="C1342" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr">
+      <c r="D1342" t="inlineStr">
         <is>
           <t>inertial twist of section</t>
         </is>
       </c>
     </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
         <is>
           <t>towerse.mass_den</t>
         </is>
       </c>
-      <c r="B1340" t="inlineStr">
+      <c r="B1343" t="inlineStr">
         <is>
           <t>kg/m</t>
         </is>
       </c>
-      <c r="C1340" t="inlineStr">
+      <c r="C1343" t="inlineStr">
         <is>
           <t>[10504.12240476  9396.43917809  8336.25684766  7405.36118517
   6538.2923024   5673.96098713  4819.45124107  4016.76966399
   3329.74453874  2933.84686598]</t>
         </is>
       </c>
-      <c r="D1340" t="inlineStr">
+      <c r="D1343" t="inlineStr">
         <is>
           <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
         <is>
           <t>towerse.foreaft_iner</t>
         </is>
       </c>
-      <c r="B1341" t="inlineStr">
+      <c r="B1344" t="inlineStr">
         <is>
           <t>kg*m</t>
         </is>
       </c>
-      <c r="C1341" t="inlineStr">
+      <c r="C1344" t="inlineStr">
         <is>
           <t>[43273.97338261 38795.7463798  34490.76577143 30695.61083266
  27147.92246836 23599.1979211  20078.78786873 16761.02229322
  13659.2124316  11106.50396931]</t>
         </is>
       </c>
-      <c r="D1341" t="inlineStr">
+      <c r="D1344" t="inlineStr">
         <is>
           <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
         <is>
           <t>towerse.sideside_iner</t>
         </is>
       </c>
-      <c r="B1342" t="inlineStr">
+      <c r="B1345" t="inlineStr">
         <is>
           <t>kg*m</t>
         </is>
       </c>
-      <c r="C1342" t="inlineStr">
+      <c r="C1345" t="inlineStr">
         <is>
           <t>[43273.97338261 38795.7463798  34490.76577143 30695.61083266
  27147.92246836 23599.1979211  20078.78786873 16761.02229322
  13659.2124316  11106.50396931]</t>
         </is>
       </c>
-      <c r="D1342" t="inlineStr">
+      <c r="D1345" t="inlineStr">
         <is>
           <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
         <is>
           <t>towerse.foreaft_stff</t>
         </is>
       </c>
-      <c r="B1343" t="inlineStr">
+      <c r="B1346" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1343" t="inlineStr">
+      <c r="C1346" t="inlineStr">
         <is>
           <t>[1.06912170e+12 9.58483146e+11 8.52124801e+11 7.58362150e+11
  6.70713379e+11 5.83039007e+11 4.96064171e+11 4.14095845e+11
  3.37462895e+11 2.74395980e+11]</t>
         </is>
       </c>
-      <c r="D1343" t="inlineStr">
+      <c r="D1346" t="inlineStr">
         <is>
           <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
         <is>
           <t>towerse.sideside_stff</t>
         </is>
       </c>
-      <c r="B1344" t="inlineStr">
+      <c r="B1347" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1344" t="inlineStr">
+      <c r="C1347" t="inlineStr">
         <is>
           <t>[1.06912170e+12 9.58483146e+11 8.52124801e+11 7.58362150e+11
  6.70713379e+11 5.83039007e+11 4.96064171e+11 4.14095845e+11
  3.37462895e+11 2.74395980e+11]</t>
         </is>
       </c>
-      <c r="D1344" t="inlineStr">
+      <c r="D1347" t="inlineStr">
         <is>
           <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
         <is>
           <t>towerse.tor_stff</t>
         </is>
       </c>
-      <c r="B1345" t="inlineStr">
+      <c r="B1348" t="inlineStr">
         <is>
           <t>N*m**2</t>
         </is>
       </c>
-      <c r="C1345" t="inlineStr">
+      <c r="C1348" t="inlineStr">
         <is>
           <t>[6.68201060e+11 5.99051966e+11 5.32578001e+11 4.73976344e+11
  4.19195862e+11 3.64399380e+11 3.10040107e+11 2.58809903e+11
  2.10914310e+11 1.71497488e+11]</t>
         </is>
       </c>
-      <c r="D1345" t="inlineStr">
+      <c r="D1348" t="inlineStr">
         <is>
           <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
         <is>
           <t>towerse.axial_stff</t>
         </is>
       </c>
-      <c r="B1346" t="inlineStr">
+      <c r="B1349" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1346" t="inlineStr">
+      <c r="C1349" t="inlineStr">
         <is>
           <t>[2.42536086e+11 2.16960113e+11 1.92480917e+11 1.70986899e+11
  1.50966617e+11 1.31009545e+11 1.11279248e+11 9.27456437e+10
  7.68825017e+10 6.77413790e+10]</t>
         </is>
       </c>
-      <c r="D1346" t="inlineStr">
+      <c r="D1349" t="inlineStr">
         <is>
           <t>sectional axial stiffness</t>
-        </is>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>towerse.cg_offst</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1347" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1347" t="inlineStr">
-        <is>
-          <t>offset from the sectional center of mass</t>
-        </is>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>towerse.sc_offst</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1348" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1348" t="inlineStr">
-        <is>
-          <t>offset from the sectional shear center</t>
-        </is>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>towerse.tc_offst</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1349" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1349" t="inlineStr">
-        <is>
-          <t>offset from the sectional tension center</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
+          <t>towerse.cg_offst</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>offset from the sectional center of mass</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>towerse.sc_offst</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>offset from the sectional shear center</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>towerse.tc_offst</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
           <t>towerse.axial_load2stress</t>
         </is>
       </c>
-      <c r="B1350" t="inlineStr">
+      <c r="B1353" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1350" t="inlineStr">
+      <c r="C1353" t="inlineStr">
         <is>
           <t>[[0.         0.         0.86585053 0.58926875 0.58926875 0.        ]
  [0.         0.         0.96791985 0.65728855 0.65728855 0.        ]
@@ -36038,20 +36382,20 @@
  [0.         0.         3.10002547 2.1851949  2.1851949  0.        ]]</t>
         </is>
       </c>
-      <c r="D1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
+      <c r="D1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
         <is>
           <t>towerse.shear_load2stress</t>
         </is>
       </c>
-      <c r="B1351" t="inlineStr">
+      <c r="B1354" t="inlineStr">
         <is>
           <t>m**2</t>
         </is>
       </c>
-      <c r="C1351" t="inlineStr">
+      <c r="C1354" t="inlineStr">
         <is>
           <t>[[1.41927333 1.41927333 0.         0.         0.         0.29463437]
  [1.5874111  1.5874111  0.         0.         0.         0.32864428]
@@ -36065,38 +36409,38 @@
  [5.09835809 5.09835809 0.         0.         0.         1.09259745]]</t>
         </is>
       </c>
-      <c r="D1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
+      <c r="D1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
         <is>
           <t>towerse.cm.cost</t>
         </is>
       </c>
-      <c r="B1352" t="inlineStr">
+      <c r="B1355" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1352" t="inlineStr">
+      <c r="C1355" t="inlineStr">
         <is>
           <t>[1462859.54936728]</t>
         </is>
       </c>
-      <c r="D1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
+      <c r="D1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
         <is>
           <t>towerse.cm.mass</t>
         </is>
       </c>
-      <c r="B1353" t="inlineStr">
+      <c r="B1356" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="C1353" t="inlineStr">
+      <c r="C1356" t="inlineStr">
         <is>
           <t>[47968.82564838 47968.82564838 47968.82564838 42910.40557992
  42910.40557992 42910.40557992 38068.906271   38068.906271
@@ -36108,38 +36452,38 @@
  13397.90068795 13115.10330209]</t>
         </is>
       </c>
-      <c r="D1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
+      <c r="D1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
         <is>
           <t>towerse.cm.center_of_mass</t>
         </is>
       </c>
-      <c r="B1354" t="inlineStr">
+      <c r="B1357" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1354" t="inlineStr">
+      <c r="C1357" t="inlineStr">
         <is>
           <t>[53.17313517]</t>
         </is>
       </c>
-      <c r="D1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
+      <c r="D1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
         <is>
           <t>towerse.cm.section_center_of_mass</t>
         </is>
       </c>
-      <c r="B1355" t="inlineStr">
+      <c r="B1358" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1355" t="inlineStr">
+      <c r="C1358" t="inlineStr">
         <is>
           <t>[  2.28333333   6.85        11.41666667  15.98333333  20.55
   25.11666667  29.68333333  34.25        38.81666667  43.38333333
@@ -36149,93 +36493,93 @@
  116.44766219 121.01431441 125.57546677 130.14196739 134.70846085]</t>
         </is>
       </c>
-      <c r="D1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
+      <c r="D1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
         <is>
           <t>towerse.cm.I_base</t>
         </is>
       </c>
-      <c r="B1356" t="inlineStr">
+      <c r="B1359" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1356" t="inlineStr">
+      <c r="C1359" t="inlineStr">
         <is>
           <t>[3.63045998e+09 3.63045998e+09 7.61156955e+06 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
-      <c r="D1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>towerse.structural_cost</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C1357" t="inlineStr">
-        <is>
-          <t>[1462859.54936728]</t>
-        </is>
-      </c>
-      <c r="D1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>towerse.structural_mass</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr">
-        <is>
-          <t>[862473.15944534]</t>
-        </is>
-      </c>
-      <c r="D1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>towerse.tower_cost</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C1359" t="inlineStr">
-        <is>
-          <t>[1462859.54936728]</t>
-        </is>
-      </c>
       <c r="D1359" t="inlineStr"/>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
+          <t>towerse.structural_cost</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>[1462859.54936728]</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>towerse.structural_mass</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>[862473.15944534]</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>towerse.tower_cost</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>[1462859.54936728]</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
           <t>towerse.tower_section_center_of_mass</t>
         </is>
       </c>
-      <c r="B1360" t="inlineStr">
+      <c r="B1363" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1360" t="inlineStr">
+      <c r="C1363" t="inlineStr">
         <is>
           <t>[  2.28333333   6.85        11.41666667  15.98333333  20.55
   25.11666667  29.68333333  34.25        38.81666667  43.38333333
@@ -36245,138 +36589,138 @@
  116.44766219 121.01431441 125.57546677 130.14196739 134.70846085]</t>
         </is>
       </c>
-      <c r="D1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
+      <c r="D1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
         <is>
           <t>towerse.monopile_cost</t>
         </is>
       </c>
-      <c r="B1361" t="inlineStr">
+      <c r="B1364" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="C1361" t="inlineStr">
+      <c r="C1364" t="inlineStr">
         <is>
           <t>[0.]</t>
         </is>
       </c>
-      <c r="D1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
+      <c r="D1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
         <is>
           <t>towerse.constr_d_to_t</t>
         </is>
       </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr">
+      <c r="B1365" t="inlineStr"/>
+      <c r="C1365" t="inlineStr">
         <is>
           <t>[ 96.91496253 108.45985024 122.38290531 137.89480143 156.31602724
  180.282286   212.42626375 255.07753082 302.31821512 316.59090065]</t>
         </is>
       </c>
-      <c r="D1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
+      <c r="D1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
         <is>
           <t>towerse.constr_taper</t>
         </is>
       </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr">
+      <c r="B1366" t="inlineStr"/>
+      <c r="C1366" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
  1.         1.         0.98179869 0.93880853]</t>
         </is>
       </c>
-      <c r="D1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
+      <c r="D1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
         <is>
           <t>towerse.slope</t>
         </is>
       </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr">
+      <c r="B1367" t="inlineStr"/>
+      <c r="C1367" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
  1.         1.         0.98179869 0.93880853]</t>
         </is>
       </c>
-      <c r="D1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
+      <c r="D1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
         <is>
           <t>towerse.turbine_mass</t>
         </is>
       </c>
-      <c r="B1365" t="inlineStr">
+      <c r="B1368" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="C1365" t="inlineStr">
+      <c r="C1368" t="inlineStr">
         <is>
           <t>[1288971.12446103]</t>
         </is>
       </c>
-      <c r="D1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
+      <c r="D1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
         <is>
           <t>towerse.turb.turbine_center_of_mass</t>
         </is>
       </c>
-      <c r="B1366" t="inlineStr">
+      <c r="B1369" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1366" t="inlineStr">
+      <c r="C1369" t="inlineStr">
         <is>
           <t>[-1.75080861e+00 -2.43723608e-02  8.25986318e+01]</t>
         </is>
       </c>
-      <c r="D1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
+      <c r="D1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
         <is>
           <t>towerse.turb.turbine_I_base</t>
         </is>
       </c>
-      <c r="B1367" t="inlineStr">
+      <c r="B1370" t="inlineStr">
         <is>
           <t>kg*m**2</t>
         </is>
       </c>
-      <c r="C1367" t="inlineStr">
+      <c r="C1370" t="inlineStr">
         <is>
           <t>[ 1.24844161e+10  1.24049201e+10  1.68621822e+08 -1.66245240e+05
   3.19077472e+08  4.51244169e+06]</t>
         </is>
       </c>
-      <c r="D1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
+      <c r="D1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
         <is>
           <t>towerse.wind.wind.U</t>
         </is>
       </c>
-      <c r="B1368" t="inlineStr">
+      <c r="B1371" t="inlineStr">
         <is>
           <t>m/s</t>
         </is>
       </c>
-      <c r="C1368" t="inlineStr">
+      <c r="C1371" t="inlineStr">
         <is>
           <t>[ 0.          9.12517494 10.48207345 11.36751276 12.04074052 12.59027454
  13.0578432  13.46668828 13.83117883 14.16086235 14.46242765 14.74075528
@@ -36386,20 +36730,20 @@
  18.01629358]</t>
         </is>
       </c>
-      <c r="D1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
+      <c r="D1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Px</t>
         </is>
       </c>
-      <c r="B1369" t="inlineStr">
+      <c r="B1372" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1369" t="inlineStr">
+      <c r="C1372" t="inlineStr">
         <is>
           <t>[  0.         199.70677189 275.14702123 328.80598639 371.9581969
  408.75781051 441.11052244 470.16881762 496.67833684 521.14640472
@@ -36410,58 +36754,58 @@
  778.18685648]</t>
         </is>
       </c>
-      <c r="D1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
+      <c r="D1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Py</t>
         </is>
       </c>
-      <c r="B1370" t="inlineStr">
+      <c r="B1373" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1370" t="inlineStr">
+      <c r="C1373" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
+      <c r="D1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_Pz</t>
         </is>
       </c>
-      <c r="B1371" t="inlineStr">
+      <c r="B1374" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1371" t="inlineStr">
+      <c r="C1374" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
+      <c r="D1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_qdyn</t>
         </is>
       </c>
-      <c r="B1372" t="inlineStr">
+      <c r="B1375" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1372" t="inlineStr">
+      <c r="C1375" t="inlineStr">
         <is>
           <t>[  0.          51.00215087  67.29774154  79.14746208  88.79990233
   97.09044538 104.43570234 111.07791204 117.17217361 122.82463872
@@ -36472,20 +36816,20 @@
  198.8094361 ]</t>
         </is>
       </c>
-      <c r="D1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
+      <c r="D1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_z</t>
         </is>
       </c>
-      <c r="B1373" t="inlineStr">
+      <c r="B1376" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1373" t="inlineStr">
+      <c r="C1376" t="inlineStr">
         <is>
           <t>[  0.           4.56666667   9.13333333  13.7         18.26666667
   22.83333333  27.4         31.96666667  36.53333333  41.1
@@ -36496,38 +36840,38 @@
  137.        ]</t>
         </is>
       </c>
-      <c r="D1373" t="inlineStr"/>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
+      <c r="D1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
         <is>
           <t>towerse.wind.windLoads.windLoads_beta</t>
         </is>
       </c>
-      <c r="B1374" t="inlineStr">
+      <c r="B1377" t="inlineStr">
         <is>
           <t>deg</t>
         </is>
       </c>
-      <c r="C1374" t="inlineStr">
+      <c r="C1377" t="inlineStr">
         <is>
           <t>[0.]</t>
         </is>
       </c>
-      <c r="D1374" t="inlineStr"/>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
+      <c r="D1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
         <is>
           <t>towerse.wind.Px</t>
         </is>
       </c>
-      <c r="B1375" t="inlineStr">
+      <c r="B1378" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1375" t="inlineStr">
+      <c r="C1378" t="inlineStr">
         <is>
           <t>[  0.         199.70677189 275.14702123 328.80598639 371.9581969
  408.75781051 441.11052244 470.16881762 496.67833684 521.14640472
@@ -36538,58 +36882,58 @@
  778.18685648]</t>
         </is>
       </c>
-      <c r="D1375" t="inlineStr"/>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
+      <c r="D1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
         <is>
           <t>towerse.wind.Py</t>
         </is>
       </c>
-      <c r="B1376" t="inlineStr">
+      <c r="B1379" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1376" t="inlineStr">
+      <c r="C1379" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1376" t="inlineStr"/>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
+      <c r="D1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
         <is>
           <t>towerse.wind.Pz</t>
         </is>
       </c>
-      <c r="B1377" t="inlineStr">
+      <c r="B1380" t="inlineStr">
         <is>
           <t>N/m</t>
         </is>
       </c>
-      <c r="C1377" t="inlineStr">
+      <c r="C1380" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1377" t="inlineStr"/>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
+      <c r="D1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
         <is>
           <t>towerse.wind.qdyn</t>
         </is>
       </c>
-      <c r="B1378" t="inlineStr">
+      <c r="B1381" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1378" t="inlineStr">
+      <c r="C1381" t="inlineStr">
         <is>
           <t>[  0.          51.00215087  67.29774154  79.14746208  88.79990233
   97.09044538 104.43570234 111.07791204 117.17217361 122.82463872
@@ -36600,72 +36944,18 @@
  198.8094361 ]</t>
         </is>
       </c>
-      <c r="D1378" t="inlineStr"/>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>towerse.pre.kidx</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
-      <c r="D1379" t="inlineStr"/>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>towerse.pre.kx</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
-      <c r="C1380" t="inlineStr">
-        <is>
-          <t>[1.e+30]</t>
-        </is>
-      </c>
-      <c r="D1380" t="inlineStr"/>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>towerse.pre.ky</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
-      <c r="C1381" t="inlineStr">
-        <is>
-          <t>[1.e+30]</t>
-        </is>
-      </c>
       <c r="D1381" t="inlineStr"/>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>towerse.pre.kz</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+          <t>towerse.pre.kidx</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>[1.e+30]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
@@ -36673,7 +36963,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>towerse.pre.ktx</t>
+          <t>towerse.pre.kx</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
@@ -36691,7 +36981,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>towerse.pre.kty</t>
+          <t>towerse.pre.ky</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
@@ -36709,7 +36999,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>towerse.pre.ktz</t>
+          <t>towerse.pre.kz</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
@@ -36727,13 +37017,17 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>towerse.pre.midx</t>
-        </is>
-      </c>
-      <c r="B1386" t="inlineStr"/>
+          <t>towerse.pre.ktx</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[1.e+30]</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
@@ -36741,17 +37035,17 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>towerse.pre.m</t>
+          <t>towerse.pre.kty</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>N/m</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[1.e+30]</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
@@ -36759,17 +37053,17 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxx</t>
+          <t>towerse.pre.ktz</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>N/m</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[1.e+30]</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
@@ -36777,14 +37071,10 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>towerse.pre.mIyy</t>
-        </is>
-      </c>
-      <c r="B1389" t="inlineStr">
-        <is>
-          <t>kg*m**2</t>
-        </is>
-      </c>
+          <t>towerse.pre.midx</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr"/>
       <c r="C1389" t="inlineStr">
         <is>
           <t>[0. 0.]</t>
@@ -36795,12 +37085,12 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>towerse.pre.mIzz</t>
+          <t>towerse.pre.m</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -36813,7 +37103,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxy</t>
+          <t>towerse.pre.mIxx</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
@@ -36831,7 +37121,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>towerse.pre.mIxz</t>
+          <t>towerse.pre.mIyy</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
@@ -36849,7 +37139,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>towerse.pre.mIyz</t>
+          <t>towerse.pre.mIzz</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -36867,12 +37157,12 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhox</t>
+          <t>towerse.pre.mIxy</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -36885,12 +37175,12 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhoy</t>
+          <t>towerse.pre.mIxz</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -36903,12 +37193,12 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>towerse.pre.mrhoz</t>
+          <t>towerse.pre.mIyz</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -36921,13 +37211,17 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>towerse.pre.plidx</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr"/>
+          <t>towerse.pre.mrhox</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
@@ -36935,17 +37229,17 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>towerse.pre.Fx</t>
+          <t>towerse.pre.mrhoy</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>[2199361.57409122]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
@@ -36953,17 +37247,17 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>towerse.pre.Fy</t>
+          <t>towerse.pre.mrhoz</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>[41405.88733564]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr"/>
@@ -36971,17 +37265,13 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>towerse.pre.Fz</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>towerse.pre.plidx</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr"/>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>[-2481923.0433685]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr"/>
@@ -36989,17 +37279,17 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>towerse.pre.Mxx</t>
+          <t>towerse.pre.Fx</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>N*m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>[15682220.23316733]</t>
+          <t>[2199361.57409122]</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr"/>
@@ -37007,17 +37297,17 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>towerse.pre.Myy</t>
+          <t>towerse.pre.Fy</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>N*m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>[2112160.44354895]</t>
+          <t>[41405.88733564]</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr"/>
@@ -37025,17 +37315,17 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>towerse.pre.Mzz</t>
+          <t>towerse.pre.Fz</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>N*m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>[1127332.17801185]</t>
+          <t>[-2481923.0433685]</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr"/>
@@ -37043,17 +37333,17 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>towerse.tower.mass</t>
+          <t>towerse.pre.Mxx</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>N*m</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>[806049.6746582]</t>
+          <t>[15682220.23316733]</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr"/>
@@ -37061,17 +37351,17 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>towerse.tower.f1</t>
+          <t>towerse.pre.Myy</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>N*m</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>[0.4629147]</t>
+          <t>[2112160.44354895]</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr"/>
@@ -37079,17 +37369,17 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>towerse.tower.f2</t>
+          <t>towerse.pre.Mzz</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>N*m</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>[0.4629147]</t>
+          <t>[1127332.17801185]</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
@@ -37097,17 +37387,17 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>towerse.tower.structural_frequencies</t>
+          <t>towerse.tower.mass</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>[0.4629147  0.4629147  2.16368882 2.16368882 5.40758868 5.40758868]</t>
+          <t>[806049.6746582]</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr"/>
@@ -37115,11 +37405,65 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
+          <t>towerse.tower.f1</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>[0.4629147]</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>towerse.tower.f2</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>[0.4629147]</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>towerse.tower.structural_frequencies</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>[0.4629147  0.4629147  2.16368882 2.16368882 5.40758868 5.40758868]</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
           <t>towerse.tower.fore_aft_modes</t>
         </is>
       </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr">
+      <c r="B1411" t="inlineStr"/>
+      <c r="C1411" t="inlineStr">
         <is>
           <t>[[ -398.32052596   127.90719152   -74.01991657   127.39486707
     -54.39635478]
@@ -37129,16 +37473,16 @@
     -35.87106656]]</t>
         </is>
       </c>
-      <c r="D1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
+      <c r="D1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
         <is>
           <t>towerse.tower.side_side_modes</t>
         </is>
       </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr">
+      <c r="B1412" t="inlineStr"/>
+      <c r="C1412" t="inlineStr">
         <is>
           <t>[[ 1.46746333e+00 -4.71226314e-01  2.72698760e-01 -4.69338846e-01
    2.00403069e-01]
@@ -37148,90 +37492,90 @@
   -3.58710666e+01]]</t>
         </is>
       </c>
-      <c r="D1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
+      <c r="D1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
         <is>
           <t>towerse.tower.torsion_modes</t>
         </is>
       </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr">
+      <c r="B1413" t="inlineStr"/>
+      <c r="C1413" t="inlineStr">
         <is>
           <t>[[ 12.82110341 -48.69883083  86.53338705 -72.90137186  23.24571223]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
       </c>
-      <c r="D1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>towerse.tower.fore_aft_freqs</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="C1411" t="inlineStr">
-        <is>
-          <t>[0.4629147  2.16368882 5.40758868]</t>
-        </is>
-      </c>
-      <c r="D1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>towerse.tower.side_side_freqs</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="C1412" t="inlineStr">
-        <is>
-          <t>[0.4629147  2.16368882 5.40758868]</t>
-        </is>
-      </c>
-      <c r="D1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>towerse.tower.torsion_freqs</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="C1413" t="inlineStr">
-        <is>
-          <t>[11.85907444  0.          0.        ]</t>
-        </is>
-      </c>
       <c r="D1413" t="inlineStr"/>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
+          <t>towerse.tower.fore_aft_freqs</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>[0.4629147  2.16368882 5.40758868]</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>towerse.tower.side_side_freqs</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>[0.4629147  2.16368882 5.40758868]</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>towerse.tower.torsion_freqs</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>[11.85907444  0.          0.        ]</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
           <t>towerse.tower.tower_deflection</t>
         </is>
       </c>
-      <c r="B1414" t="inlineStr">
+      <c r="B1417" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1414" t="inlineStr">
+      <c r="C1417" t="inlineStr">
         <is>
           <t>[0.         0.00332476 0.01271279 0.02795927 0.0492079  0.07653163
  0.10969937 0.14885786 0.19406815 0.24506855 0.30197027 0.36478896
@@ -37241,38 +37585,38 @@
  2.50034361]</t>
         </is>
       </c>
-      <c r="D1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
+      <c r="D1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
         <is>
           <t>towerse.tower.top_deflection</t>
         </is>
       </c>
-      <c r="B1415" t="inlineStr">
+      <c r="B1418" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C1415" t="inlineStr">
+      <c r="C1418" t="inlineStr">
         <is>
           <t>[2.50034361]</t>
         </is>
       </c>
-      <c r="D1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
+      <c r="D1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Fz</t>
         </is>
       </c>
-      <c r="B1416" t="inlineStr">
+      <c r="B1419" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1416" t="inlineStr">
+      <c r="C1419" t="inlineStr">
         <is>
           <t>[-9946687.53104864 -9507063.13255001 -9067438.73405138 -8674173.70539039
  -8280908.67672939 -7887643.64806838 -7538749.96833137 -7189856.28859436
@@ -37284,20 +37628,20 @@
  -2602120.26771953 -2481923.04336849]</t>
         </is>
       </c>
-      <c r="D1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
+      <c r="D1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Vx</t>
         </is>
       </c>
-      <c r="B1417" t="inlineStr">
+      <c r="B1420" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1417" t="inlineStr">
+      <c r="C1420" t="inlineStr">
         <is>
           <t>[2280562.80352559 2279770.22685268 2278673.00201645 2277253.83348206
  2275732.5660222  2274043.43676665 2272030.28191972 2270053.56789717
@@ -37309,20 +37653,20 @@
  2204837.98929271 2201243.40772382]</t>
         </is>
       </c>
-      <c r="D1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
+      <c r="D1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Vy</t>
         </is>
       </c>
-      <c r="B1418" t="inlineStr">
+      <c r="B1421" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1418" t="inlineStr">
+      <c r="C1421" t="inlineStr">
         <is>
           <t>[41401.03638003 41390.82302957 41380.43520563 41373.14425031
  41362.43612837 41351.55921063 41347.29726306 41336.11067089
@@ -37334,20 +37678,20 @@
  41212.14126532 41200.18061597]</t>
         </is>
       </c>
-      <c r="D1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
+      <c r="D1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Mxx</t>
         </is>
       </c>
-      <c r="B1419" t="inlineStr">
+      <c r="B1422" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1419" t="inlineStr">
+      <c r="C1422" t="inlineStr">
         <is>
           <t>[10875756.00847158 11061729.94735627 11245789.75330255 11427981.43225345
  11608314.99989191 11786953.58650715 11963942.65562292 12139259.19174681
@@ -37359,20 +37703,20 @@
  15533812.82217547 15682226.56729236]</t>
         </is>
       </c>
-      <c r="D1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
+      <c r="D1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Myy</t>
         </is>
       </c>
-      <c r="B1420" t="inlineStr">
+      <c r="B1423" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1420" t="inlineStr">
+      <c r="C1423" t="inlineStr">
         <is>
           <t>[3.10593609e+08 3.00088782e+08 2.89538083e+08 2.78946520e+08
  2.68318389e+08 2.57661156e+08 2.46978940e+08 2.36274599e+08
@@ -37384,20 +37728,20 @@
  1.25361368e+07 2.11216338e+06]</t>
         </is>
       </c>
-      <c r="D1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
+      <c r="D1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
         <is>
           <t>towerse.tower.tower_Mzz</t>
         </is>
       </c>
-      <c r="B1421" t="inlineStr">
+      <c r="B1424" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1421" t="inlineStr">
+      <c r="C1424" t="inlineStr">
         <is>
           <t>[1127486.68438196 1127480.14368823 1127473.60307038 1127482.96528758
  1127476.42463683 1127469.88406197 1127480.02702461 1127473.48640814
@@ -37409,56 +37753,56 @@
  1127477.30755205 1127473.75567804]</t>
         </is>
       </c>
-      <c r="D1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
+      <c r="D1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
         <is>
           <t>towerse.tower.base_F</t>
         </is>
       </c>
-      <c r="B1422" t="inlineStr">
+      <c r="B1425" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1422" t="inlineStr">
+      <c r="C1425" t="inlineStr">
         <is>
           <t>[  2281018.80055307     41401.03638003 -10386311.92954728]</t>
         </is>
       </c>
-      <c r="D1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
+      <c r="D1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
         <is>
           <t>towerse.tower.base_M</t>
         </is>
       </c>
-      <c r="B1423" t="inlineStr">
+      <c r="B1426" t="inlineStr">
         <is>
           <t>N*m</t>
         </is>
       </c>
-      <c r="C1423" t="inlineStr">
+      <c r="C1426" t="inlineStr">
         <is>
           <t>[1.06877159e+07 3.21043353e+08 1.12748668e+06]</t>
         </is>
       </c>
-      <c r="D1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
+      <c r="D1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
         <is>
           <t>towerse.post.axial_stress</t>
         </is>
       </c>
-      <c r="B1424" t="inlineStr">
+      <c r="B1427" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1424" t="inlineStr">
+      <c r="C1427" t="inlineStr">
         <is>
           <t>[1.74522931e+08 1.68721341e+08 1.62893342e+08 1.75106251e+08
  1.68512322e+08 1.61900236e+08 1.74587731e+08 1.67070649e+08
@@ -37470,20 +37814,20 @@
  3.55527230e+07 2.82279320e+07]</t>
         </is>
       </c>
-      <c r="D1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
+      <c r="D1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
         <is>
           <t>towerse.post.shear_stress</t>
         </is>
       </c>
-      <c r="B1425" t="inlineStr">
+      <c r="B1428" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1425" t="inlineStr">
+      <c r="C1428" t="inlineStr">
         <is>
           <t>[ 3569471.60259334  3568344.71476079  3566785.51472148  3986075.38891722
   3983658.45229403  3980975.08938798  4484802.89768775  4481262.02997405
@@ -37495,20 +37839,20 @@
  12474895.96559587 12752037.54449198]</t>
         </is>
       </c>
-      <c r="D1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
+      <c r="D1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
         <is>
           <t>towerse.post.hoop_stress</t>
         </is>
       </c>
-      <c r="B1426" t="inlineStr">
+      <c r="B1429" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1426" t="inlineStr">
+      <c r="C1429" t="inlineStr">
         <is>
           <t>[ -1222.96734738  -2836.68243686  -3511.57155455  -4511.89965726
   -4993.93723178  -5413.99241348  -6539.91716173  -6926.41463323
@@ -37520,35 +37864,35 @@
  -30732.99393983 -30502.24207578]</t>
         </is>
       </c>
-      <c r="D1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
+      <c r="D1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
         <is>
           <t>towerse.post.hoop_stress_euro</t>
         </is>
       </c>
-      <c r="B1427" t="inlineStr">
+      <c r="B1430" t="inlineStr">
         <is>
           <t>N/m**2</t>
         </is>
       </c>
-      <c r="C1427" t="inlineStr">
+      <c r="C1430" t="inlineStr">
         <is>
           <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
-      <c r="D1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
+      <c r="D1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
         <is>
           <t>towerse.post.constr_stress</t>
         </is>
       </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr">
+      <c r="B1431" t="inlineStr"/>
+      <c r="C1431" t="inlineStr">
         <is>
           <t>[0.68106876 0.6584601  0.6357476  0.68345378 0.65775848 0.63199386
  0.68157851 0.65229181 0.6229694  0.66677828 0.6336032  0.60043177
@@ -37557,16 +37901,16 @@
  0.37715537 0.31266541 0.24957774 0.21070613 0.16230555 0.13983126]</t>
         </is>
       </c>
-      <c r="D1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
+      <c r="D1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
         <is>
           <t>towerse.post.constr_shell_buckling</t>
         </is>
       </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr">
+      <c r="B1432" t="inlineStr"/>
+      <c r="C1432" t="inlineStr">
         <is>
           <t>[0.02294261 0.02192827 0.02091411 0.02270891 0.02167948 0.02065003
  0.0227058  0.02165547 0.02060512 0.02271407 0.02163725 0.0205604
@@ -37575,16 +37919,16 @@
  0.04487288 0.04295818 0.04105151 0.04606361 0.04416541 0.04231343]</t>
         </is>
       </c>
-      <c r="D1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
+      <c r="D1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
         <is>
           <t>towerse.post.constr_global_buckling</t>
         </is>
       </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr">
+      <c r="B1433" t="inlineStr"/>
+      <c r="C1433" t="inlineStr">
         <is>
           <t>[1.05626152 1.01648494 0.97679859 1.05695379 1.01302929 0.96926385
  1.05297678 1.00422302 0.95570209 1.03047864 0.97656889 0.92297421
@@ -37593,234 +37937,168 @@
  0.65530209 0.56024274 0.46617721 0.4197597  0.34598228 0.30824259]</t>
         </is>
       </c>
-      <c r="D1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>towerse.post.turbine_F</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>Total force on tower+rna</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>towerse.post.turbine_M</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>N*m</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>Total x-moment on tower+rna measured at base</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>tcons.constr_tower_f_NPmargin</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr">
-        <is>
-          <t>[-0.0219328]</t>
-        </is>
-      </c>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>constraint on tower frequency such that ratio of 3P/f is above or below gamma with constraint &lt;= 0</t>
-        </is>
-      </c>
+      <c r="D1433" t="inlineStr"/>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>tcons.constr_tower_f_1Pmargin</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
+          <t>towerse.post.turbine_F</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>[-0.28505975]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>constraint on tower frequency such that ratio of 1P/f is above or below gamma with constraint &lt;= 0</t>
+          <t>Total force on tower+rna</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>tcons.tip_deflection_ratio</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
+          <t>towerse.post.turbine_M</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>N*m</t>
+        </is>
+      </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>[0.96765899]</t>
-        </is>
-      </c>
-      <c r="D1435" t="inlineStr"/>
+          <t>[0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>Total x-moment on tower+rna measured at base</t>
+        </is>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>tcons.blade_tip_tower_clearance</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>tcons.constr_tower_f_NPmargin</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr"/>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>[18.72635043]</t>
-        </is>
-      </c>
-      <c r="D1436" t="inlineStr"/>
+          <t>[-0.0219328]</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>constraint on tower frequency such that ratio of 3P/f is above or below gamma with constraint &lt;= 0</t>
+        </is>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>landbosse.bos_capex</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+          <t>tcons.constr_tower_f_1Pmargin</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr"/>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>[1.19735885e+08]</t>
+          <t>[-0.28505975]</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>Total BOS CAPEX not including commissioning or decommissioning.</t>
+          <t>constraint on tower frequency such that ratio of 1P/f is above or below gamma with constraint &lt;= 0</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>landbosse.bos_capex_kW</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>USD/kW</t>
-        </is>
-      </c>
+          <t>tcons.tip_deflection_ratio</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr"/>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>[200.]</t>
-        </is>
-      </c>
-      <c r="D1438" t="inlineStr">
-        <is>
-          <t>Total BOS CAPEX per kW not including commissioning or decommissioning.</t>
-        </is>
-      </c>
+          <t>[0.96765899]</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr"/>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>landbosse.total_capex</t>
+          <t>tcons.blade_tip_tower_clearance</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>[1.38893627e+08]</t>
-        </is>
-      </c>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>Total BOS CAPEX including commissioning and decommissioning.</t>
-        </is>
-      </c>
+          <t>[18.72635043]</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr"/>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>landbosse.total_capex_kW</t>
+          <t>landbosse.bos_capex</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>[231.]</t>
+          <t>[1.19735885e+08]</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>Total BOS CAPEX per kW including commissioning and decommissioning.</t>
+          <t>Total BOS CAPEX not including commissioning or decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>landbosse.installation_capex</t>
+          <t>landbosse.bos_capex_kW</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>[43585323.]</t>
+          <t>[200.]</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>Total foundation and erection installation cost.</t>
+          <t>Total BOS CAPEX per kW not including commissioning or decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>landbosse.installation_capex_kW</t>
+          <t>landbosse.total_capex</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
@@ -37830,89 +38108,155 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>[73.]</t>
+          <t>[1.38893627e+08]</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>Total foundation and erection installation cost per kW.</t>
+          <t>Total BOS CAPEX including commissioning and decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>landbosse.installation_time_months</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
+          <t>landbosse.total_capex_kW</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>USD/kW</t>
+        </is>
+      </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>[12.]</t>
+          <t>[231.]</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>Total balance of system installation time (months).</t>
+          <t>Total BOS CAPEX per kW including commissioning and decommissioning.</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>landbosse.landbosse_costs_by_module_type_operation</t>
+          <t>landbosse.installation_capex</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>[{'Module': 'FoundationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 1.2804814300420881, 'Cost / project': 768288.8580252528, 'Cost / turbine': 6402.40715021044, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Labor', 'Cost / kW': 13.645615535211924, 'Cost / project': 8187369.321127154, 'Cost / turbine': 68228.07767605962, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Materials', 'Cost / kW': 23.680863003683164, 'Cost / project': 14208517.802209899, 'Cost / turbine': 118404.31501841583, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 1.930347998446859, 'Cost / project': 1158208.7990681154, 'Cost / turbine': 9651.739992234296, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Materials', 'Cost / kW': 5.476570135242568, 'Cost / project': 3285942.081145541, 'Cost / turbine': 27382.85067621284, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 3.0249317184701137, 'Cost / project': 1814959.031082068, 'Cost / turbine': 15124.658592350568, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Labor', 'Cost / kW': 3.2721485433158644, 'Cost / project': 1963289.1259895186, 'Cost / turbine': 16360.742716579321, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Other', 'Cost / kW': 2.86459986, 'Cost / project': 1718759.9160000002, 'Cost / turbine': 14322.999300000001, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.38864554432410786, 'Cost / project': 233187.3265944647, 'Cost / turbine': 1943.2277216205393, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SubstationCost', 'Type of cost': 'Other', 'Cost / kW': 16.911599000804763, 'Cost / project': 10146959.400482858, 'Cost / turbine': 84557.99500402382, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'GridConnectionCost', 'Type of cost': 'Other', 'Cost / kW': 6.794429688199228, 'Cost / project': 4076657.812919537, 'Cost / turbine': 33972.14844099614, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 4.4995824058955645, 'Cost / project': 2699749.4435373386, 'Cost / turbine': 22497.912029477822, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Labor', 'Cost / kW': 8.396861124129725, 'Cost / project': 5038116.674477834, 'Cost / turbine': 41984.30562064862, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Materials', 'Cost / kW': 31.87906207754761, 'Cost / project': 19127437.246528566, 'Cost / turbine': 159395.31038773805, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 2.238775280378645, 'Cost / project': 1343265.1682271871, 'Cost / turbine': 11193.876401893225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Labor', 'Cost / kW': 1.6666666666666667, 'Cost / project': 1000000.0, 'Cost / turbine': 8333.333333333334, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 6.130945857678428, 'Cost / project': 3678567.514607057, 'Cost / turbine': 30654.72928839214, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Fuel', 'Cost / kW': 0.189045, 'Cost / project': 113427.0, 'Cost / turbine': 945.225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Labor', 'Cost / kW': 21.827617384093614, 'Cost / project': 13096570.430456169, 'Cost / turbine': 109138.08692046808, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 3.957288666666667, 'Cost / project': 2374373.2, 'Cost / turbine': 19786.443333333336, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'insurance', 'Cost / kW': 0.8963140307564664, 'Cost / project': 537788.4184538799, 'Cost / turbine': 4481.570153782332, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Construction Permitting', 'Cost / kW': 1.144079492681014, 'Cost / project': 686447.6956086084, 'Cost / turbine': 5720.39746340507, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Project Management', 'Cost / kW': 3.982776508125, 'Cost / project': 2389665.904875, 'Cost / turbine': 19913.882540625, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Bonding', 'Cost / kW': 1.6005607692079757, 'Cost / project': 960336.4615247855, 'Cost / turbine': 8002.803846039879, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Markup Contingency', 'Cost / kW': 20.839301215087843, 'Cost / project': 12503580.729052706, 'Cost / turbine': 104196.50607543922, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Engineering Foundation and Collections System (includes met mast)', 'Cost / kW': 7.80445, 'Cost / project': 4682670.0, 'Cost / turbine': 39022.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Site Facility', 'Cost / kW': 3.23625, 'Cost / project': 1941750.0, 'Cost / turbine': 16181.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}]</t>
+          <t>[43585323.]</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>The costs by module, type and operation</t>
+          <t>Total foundation and erection installation cost.</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>landbosse.landbosse_details_by_module</t>
+          <t>landbosse.installation_capex_kW</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>[{'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'wind_multiplier', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_dead', 'value': 10984.275669320094, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_horiz', 'value': 1083.292020938473, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN_m', 'type': 'variable', 'variable_df_key_col_name': 'M_tot_kN', 'value': 142487.20520072608, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_o', 'value': 9.205409630249942, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_g', 'value': 0.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_b', 'value': 10.735773240459455, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius', 'value': 10.735773240459455, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'short_ton', 'type': 'variable', 'variable_df_key_col_name': 'steel_mass_short_ton_per_turbine', 'value': 43.79136751564443, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'foundation_volume_concrete_m3_per_turbine', 'value': 384.5395812754165, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Rebar installation-4204-47.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Concrete placement-298-4.0-3.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Excavation-147-2.0-nan', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Backfill-90-1.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'ton (short)', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '0-Steel - rebar-4.38e+01', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '1-Concrete 5000 psi-4.95e+02', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '2-Excavated dirt-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '3-Backfill-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Foundation &lt;--&gt; 768289', 'last_number': 768288.8580252528, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Foundation &lt;--&gt; 8187370', 'last_number': 8187369.321127154, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Foundation &lt;--&gt; 14208518', 'last_number': 14208517.802209899, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Foundation &lt;--&gt; 1158209', 'last_number': 1158208.7990681154, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'Total road volume', 'value': 226917.6, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Depth to subgrade', 'value': 0.1, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft', 'type': 'variable', 'variable_df_key_col_name': 'Crane path width', 'value': 13.7, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road length', 'value': 176598.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road width', 'value': 6.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road thickness', 'value': 0.2, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Material volume', 'value': 412547.6561387999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Topsoil volume', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume crane', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume road', 'value': 277177.62492, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft^2', 'type': 'variable', 'variable_df_key_col_name': 'Rough grading area', 'value': 114.05299273199999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Roads &lt;--&gt; 3285943', 'last_number': 3285942.081145541, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Roads &lt;--&gt; 1814960', 'last_number': 1814959.031082068, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Roads &lt;--&gt; 1963290', 'last_number': 1963289.1259895186, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Roads &lt;--&gt; 1718760', 'last_number': 1718759.9160000002, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Roads &lt;--&gt; 233188', 'last_number': 233187.3265944647, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Substation &lt;--&gt; 10146960', 'last_number': 10146959.400482858, 'project_id_with_serial': 'WISDEM', 'module': 'SubstationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Transmission and Distribution &lt;--&gt; 4076658', 'last_number': 4076657.812919537, 'project_id_with_serial': 'WISDEM', 'module': 'GridConnectionCost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total Number of Turbines', 'value': 120.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total trench length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines Per String in Full String', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Full Strings', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines in Partial String', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Partial Strings', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total number of strings full + partial', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Trench Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Cable Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 1/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 1/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 1/0', 'value': 624488.188976378, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 4/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 4/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 4/0', 'value': 936732.283464567, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM 500', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM 500', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM 500', 'value': 1353057.7427821523, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1000', 'value': 4.326, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1000', 'value': 47.586, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1000', 'value': 2497952.755905512, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1250', 'value': 1.442, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1250', 'value': 245.90558074952392, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1250', 'value': 13715206.275399957, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Number of turbines per cable type in full strings [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[3.0, 2.0, 2.0, 3.0, 1.0]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '0 &lt;--&gt; Project manager &lt;--&gt; 119.0 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-manager-sr-construction-hourly?type=base; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 107100.0 &lt;--&gt; 120510.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '1 &lt;--&gt; Site manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '2 &lt;--&gt; Construction manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '3 &lt;--&gt; Project engineer &lt;--&gt; 93.5 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-engineer-iii-construction-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 84150.0 &lt;--&gt; 97560.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '4 &lt;--&gt; Safety or qc manager &lt;--&gt; 106.11764705882352 &lt;--&gt; 149 &lt;--&gt; (70% burden) https://www.salary.com/tools/salary-calculator/construction-site-safety-manager-hourly; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 95505.88235294116 &lt;--&gt; 108915.88235294116', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '5 &lt;--&gt; Logistics manager &lt;--&gt; 99.9 &lt;--&gt; 149 &lt;--&gt; (50 % burden) https://www.salary.com/research/salary/benchmark/logistics-manager-hourly-wages; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 89910.0 &lt;--&gt; 103320.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '6 &lt;--&gt; Office admin &lt;--&gt; 44.56249999999999 &lt;--&gt; 149 &lt;--&gt; (35% burden) https://www.salary.com/tools/salary-calculator/administrative-assistant-ii-hourly ; 25% for work on a ladder or a scaffold, in a crawl space, in a congested area or remote from the material storage point; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 40106.24999999999 &lt;--&gt; 53516.24999999999', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Percent length of cable in partial string [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[1. 1. 1. 1. 0.]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Collection &lt;--&gt; 2699750', 'last_number': 2699749.4435373386, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Collection &lt;--&gt; 5038117', 'last_number': 5038116.674477834, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Collection &lt;--&gt; 19127438', 'last_number': 19127437.246528566, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Collection &lt;--&gt; 1343266', 'last_number': 1343265.1682271871, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Equipment rental - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Labor - Development - 1000000', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Materials - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Mobilization - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Other - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Offload-LB 75-Hydraulic-2', 'last_number': 2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3.0', 'last_number': 3.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Offload-LB 75-Hydraulic-1.0', 'last_number': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-2.0', 'last_number': 2.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Nacelle - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Hub - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 1 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 2 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 3 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 1 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 2 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 3 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 4 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 5 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 6 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 7 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 8 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 9 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 10 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 11 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'Big LR110000 - Big PDW3B2 Derrick - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LB 75 - Hydraulic - Offload', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LR1750/2 - SX3D4F2B Derrick (walk) - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Equipment rental cost USD - 2452310.014545454', 'last_number': 2452310.014545454, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Equipment rental cost USD - 58546.0706713781', 'last_number': 58546.0706713781, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Equipment rental cost USD - 1167711.4293902244', 'last_number': 1167711.4293902244, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Fuel cost USD - 72540.0', 'last_number': 72540.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Fuel cost USD - 5544.0', 'last_number': 5544.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Fuel cost USD - 35343.0', 'last_number': 35343.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Labor cost USD without management - 3746069.9467044845', 'last_number': 3746069.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Labor cost USD without management - 882394.6829100354', 'last_number': 882394.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Labor cost USD without management - 2311965.0408416493', 'last_number': 2311965.0408416493, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Mobilization cost USD - 1621827.2', 'last_number': 1621827.2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Mobilization cost USD - 32160.0', 'last_number': 32160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Mobilization cost USD - 720386.0', 'last_number': 720386.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for hourly labor (non-management) USD - 3228741.9467044845', 'last_number': 3228741.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for hourly labor (non-management) USD - 757234.6829100354', 'last_number': 757234.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for hourly labor (non-management) USD - 1992807.040841649', 'last_number': 1992807.040841649, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for per diem labor (non-management) USD - 517328.0', 'last_number': 517328.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for per diem labor (non-management) USD - 125160.0', 'last_number': 125160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for per diem labor (non-management) USD - 319158.0', 'last_number': 319158.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Total cost USD - 7892747.161249938', 'last_number': 7892747.161249938, 'project_id_with_serial': 'WISDEM', 'mod</t>
+          <t>[73.]</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>The details from the run of LandBOSSE. This includes some costs, but mostly other things</t>
+          <t>Total foundation and erection installation cost per kW.</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
+          <t>landbosse.installation_time_months</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr"/>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>[12.]</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>Total balance of system installation time (months).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>landbosse.landbosse_costs_by_module_type_operation</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>[{'Module': 'FoundationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 1.2804814300420881, 'Cost / project': 768288.8580252528, 'Cost / turbine': 6402.40715021044, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Labor', 'Cost / kW': 13.645615535211924, 'Cost / project': 8187369.321127154, 'Cost / turbine': 68228.07767605962, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Materials', 'Cost / kW': 23.680863003683164, 'Cost / project': 14208517.802209899, 'Cost / turbine': 118404.31501841583, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'FoundationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 1.930347998446859, 'Cost / project': 1158208.7990681154, 'Cost / turbine': 9651.739992234296, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Materials', 'Cost / kW': 5.476570135242568, 'Cost / project': 3285942.081145541, 'Cost / turbine': 27382.85067621284, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 3.0249317184701137, 'Cost / project': 1814959.031082068, 'Cost / turbine': 15124.658592350568, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Labor', 'Cost / kW': 3.2721485433158644, 'Cost / project': 1963289.1259895186, 'Cost / turbine': 16360.742716579321, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Other', 'Cost / kW': 2.86459986, 'Cost / project': 1718759.9160000002, 'Cost / turbine': 14322.999300000001, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SitePreparationCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.38864554432410786, 'Cost / project': 233187.3265944647, 'Cost / turbine': 1943.2277216205393, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'SubstationCost', 'Type of cost': 'Other', 'Cost / kW': 16.911599000804763, 'Cost / project': 10146959.400482858, 'Cost / turbine': 84557.99500402382, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'GridConnectionCost', 'Type of cost': 'Other', 'Cost / kW': 6.794429688199228, 'Cost / project': 4076657.812919537, 'Cost / turbine': 33972.14844099614, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 4.4995824058955645, 'Cost / project': 2699749.4435373386, 'Cost / turbine': 22497.912029477822, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Labor', 'Cost / kW': 8.396861124129725, 'Cost / project': 5038116.674477834, 'Cost / turbine': 41984.30562064862, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Materials', 'Cost / kW': 31.87906207754761, 'Cost / project': 19127437.246528566, 'Cost / turbine': 159395.31038773805, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'CollectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 2.238775280378645, 'Cost / project': 1343265.1682271871, 'Cost / turbine': 11193.876401893225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Labor', 'Cost / kW': 1.6666666666666667, 'Cost / project': 1000000.0, 'Cost / turbine': 8333.333333333334, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Mobilization', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'DevelopmentCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Equipment rental', 'Cost / kW': 6.130945857678428, 'Cost / project': 3678567.514607057, 'Cost / turbine': 30654.72928839214, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Fuel', 'Cost / kW': 0.189045, 'Cost / project': 113427.0, 'Cost / turbine': 945.225, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Labor', 'Cost / kW': 21.827617384093614, 'Cost / project': 13096570.430456169, 'Cost / turbine': 109138.08692046808, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Mobilization', 'Cost / kW': 3.957288666666667, 'Cost / project': 2374373.2, 'Cost / turbine': 19786.443333333336, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Other', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ErectionCost', 'Type of cost': 'Materials', 'Cost / kW': 0.0, 'Cost / project': 0.0, 'Cost / turbine': 0.0, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'insurance', 'Cost / kW': 0.8963140307564664, 'Cost / project': 537788.4184538799, 'Cost / turbine': 4481.570153782332, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Construction Permitting', 'Cost / kW': 1.144079492681014, 'Cost / project': 686447.6956086084, 'Cost / turbine': 5720.39746340507, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Project Management', 'Cost / kW': 3.982776508125, 'Cost / project': 2389665.904875, 'Cost / turbine': 19913.882540625, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Bonding', 'Cost / kW': 1.6005607692079757, 'Cost / project': 960336.4615247855, 'Cost / turbine': 8002.803846039879, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Markup Contingency', 'Cost / kW': 20.839301215087843, 'Cost / project': 12503580.729052706, 'Cost / turbine': 104196.50607543922, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Engineering Foundation and Collections System (includes met mast)', 'Cost / kW': 7.80445, 'Cost / project': 4682670.0, 'Cost / turbine': 39022.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}, {'Module': 'ManagementCost', 'Type of cost': 'Site Facility', 'Cost / kW': 3.23625, 'Cost / project': 1941750.0, 'Cost / turbine': 16181.25, 'Number of turbines': 120, 'Rotor diameter (m)': 206.0, 'Turbine rating (MW)': 5.0, 'Project ID with serial': 'WISDEM'}]</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>The costs by module, type and operation</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>landbosse.landbosse_details_by_module</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>[{'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'wind_multiplier', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_dead', 'value': 10984.275669320094, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN', 'type': 'variable', 'variable_df_key_col_name': 'F_horiz', 'value': 1083.292020938473, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'kN_m', 'type': 'variable', 'variable_df_key_col_name': 'M_tot_kN', 'value': 142487.20520072608, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_o', 'value': 9.205409630249942, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_g', 'value': 0.0, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius_b', 'value': 10.735773240459455, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Radius', 'value': 10.735773240459455, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'short_ton', 'type': 'variable', 'variable_df_key_col_name': 'steel_mass_short_ton_per_turbine', 'value': 43.79136751564443, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'foundation_volume_concrete_m3_per_turbine', 'value': 384.5395812754165, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Rebar installation-4204-47.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Concrete placement-298-4.0-3.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Excavation-147-2.0-nan', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'operation_data: Operation ID-Number of days-Number of crews-Number of workers', 'value': 'Backfill-90-1.0-1.0', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'ton (short)', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '0-Steel - rebar-4.38e+01', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '1-Concrete 5000 psi-4.95e+02', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '2-Excavated dirt-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'cubic_yards', 'type': 'dataframe', 'variable_df_key_col_name': 'material_needs_per_turbine: Material type ID-Quantity of material', 'value': '3-Backfill-1.22e+03', 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Foundation &lt;--&gt; 768289', 'last_number': 768288.8580252528, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Foundation &lt;--&gt; 8187370', 'last_number': 8187369.321127154, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Foundation &lt;--&gt; 14208518', 'last_number': 14208517.802209899, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Foundation &lt;--&gt; 1158209', 'last_number': 1158208.7990681154, 'project_id_with_serial': 'WISDEM', 'module': 'FoundationCost'}, {'unit': 'm^3', 'type': 'variable', 'variable_df_key_col_name': 'Total road volume', 'value': 226917.6, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Depth to subgrade', 'value': 0.1, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft', 'type': 'variable', 'variable_df_key_col_name': 'Crane path width', 'value': 13.7, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road length', 'value': 176598.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road width', 'value': 6.0, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'm', 'type': 'variable', 'variable_df_key_col_name': 'Road thickness', 'value': 0.2, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Material volume', 'value': 412547.6561387999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Topsoil volume', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume crane', 'value': 316444.455117, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'cubic yards', 'type': 'variable', 'variable_df_key_col_name': 'Embankment volume road', 'value': 277177.62492, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': 'ft^2', 'type': 'variable', 'variable_df_key_col_name': 'Rough grading area', 'value': 114.05299273199999, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Roads &lt;--&gt; 3285943', 'last_number': 3285942.081145541, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Roads &lt;--&gt; 1814960', 'last_number': 1814959.031082068, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Roads &lt;--&gt; 1963290', 'last_number': 1963289.1259895186, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Roads &lt;--&gt; 1718760', 'last_number': 1718759.9160000002, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Roads &lt;--&gt; 233188', 'last_number': 233187.3265944647, 'project_id_with_serial': 'WISDEM', 'module': 'SitePreparationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Substation &lt;--&gt; 10146960', 'last_number': 10146959.400482858, 'project_id_with_serial': 'WISDEM', 'module': 'SubstationCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Other &lt;--&gt; Transmission and Distribution &lt;--&gt; 4076658', 'last_number': 4076657.812919537, 'project_id_with_serial': 'WISDEM', 'module': 'GridConnectionCost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total Number of Turbines', 'value': 120.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total trench length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length', 'value': 388.66358074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines Per String in Full String', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Full Strings', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Turbines in Partial String', 'value': 10.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Number of Partial Strings', 'value': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Total number of strings full + partial', 'value': 11.0, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Trench Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'variable', 'variable_df_key_col_name': 'Cable Length to Substation (km)', 'value': 231.48558074952393, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 1/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 1/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 1/0', 'value': 624488.188976378, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  AWG 4/0', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  AWG 4/0', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  AWG 4/0', 'value': 936732.283464567, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM 500', 'value': 2.884, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM 500', 'value': 31.724, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM 500', 'value': 1353057.7427821523, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1000', 'value': 4.326, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1000', 'value': 47.586, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1000', 'value': 2497952.755905512, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Array cable length for cable  MCM1250', 'value': 1.442, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'km', 'type': 'variable', 'variable_df_key_col_name': 'Total cable length for cable  MCM1250', 'value': 245.90558074952392, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': 'usd', 'type': 'variable', 'variable_df_key_col_name': 'Total cable cost for cable  MCM1250', 'value': 13715206.275399957, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Number of turbines per cable type in full strings [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[3.0, 2.0, 2.0, 3.0, 1.0]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '0 &lt;--&gt; Project manager &lt;--&gt; 119.0 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-manager-sr-construction-hourly?type=base; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 107100.0 &lt;--&gt; 120510.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '1 &lt;--&gt; Site manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '2 &lt;--&gt; Construction manager &lt;--&gt; 112.2 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/construction-manager-ii-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 100980.0 &lt;--&gt; 114390.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '3 &lt;--&gt; Project engineer &lt;--&gt; 93.5 &lt;--&gt; 149 &lt;--&gt; (50% burden) https://www.salary.com/tools/salary-calculator/project-engineer-iii-construction-hourly; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 84150.0 &lt;--&gt; 97560.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '4 &lt;--&gt; Safety or qc manager &lt;--&gt; 106.11764705882352 &lt;--&gt; 149 &lt;--&gt; (70% burden) https://www.salary.com/tools/salary-calculator/construction-site-safety-manager-hourly; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 95505.88235294116 &lt;--&gt; 108915.88235294116', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '5 &lt;--&gt; Logistics manager &lt;--&gt; 99.9 &lt;--&gt; 149 &lt;--&gt; (50 % burden) https://www.salary.com/research/salary/benchmark/logistics-manager-hourly-wages; plus 35% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 89910.0 &lt;--&gt; 103320.0', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Labor type ID &lt;--&gt; Hourly rate USD per hour &lt;--&gt; Per diem USD per day &lt;--&gt; Operation &lt;--&gt; Crew type &lt;--&gt; Crew name &lt;--&gt; Number of workers &lt;--&gt; Per Diem Total &lt;--&gt; Hourly costs total &lt;--&gt; Crew total cost ', 'value': '6 &lt;--&gt; Office admin &lt;--&gt; 44.56249999999999 &lt;--&gt; 149 &lt;--&gt; (35% burden) https://www.salary.com/tools/salary-calculator/administrative-assistant-ii-hourly ; 25% for work on a ladder or a scaffold, in a crawl space, in a congested area or remote from the material storage point; plus 20% for demanding specs, rigid inspec-tions, unreliable suppliers. &lt;--&gt; M0 &lt;--&gt; Management &lt;--&gt; Management - project size &lt;--&gt; 1 &lt;--&gt; 13410.0 &lt;--&gt; 40106.24999999999 &lt;--&gt; 53516.24999999999', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'list', 'variable_df_key_col_name': 'Percent length of cable in partial string [AWG 1/0  ,  AWG 4/0  ,  MCM 500  ,  MCM1000  ,  MCM1250]', 'value': '[1. 1. 1. 1. 0.]', 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Equipment rental &lt;--&gt; Collection &lt;--&gt; 2699750', 'last_number': 2699749.4435373386, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Labor &lt;--&gt; Collection &lt;--&gt; 5038117', 'last_number': 5038116.674477834, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Materials &lt;--&gt; Collection &lt;--&gt; 19127438', 'last_number': 19127437.246528566, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost &lt;--&gt; Phase of Construction &lt;--&gt; Cost in USD ', 'value': 'Mobilization &lt;--&gt; Collection &lt;--&gt; 1343266', 'last_number': 1343265.1682271871, 'project_id_with_serial': 'WISDEM', 'module': 'Collection Cost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Equipment rental - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Labor - Development - 1000000', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Materials - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Mobilization - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'Type of Cost - Phase of Construction - Cost in USD', 'value': 'Other - Development - 0', 'last_number': 'Development', 'project_id_with_serial': 'WISDEM', 'module': 'DevelopmentCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Offload-LB 75-Hydraulic-2', 'last_number': 2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': '_number_of_equip: Operation-Crane name-Boom system-Number of equipment', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-3', 'last_number': 3, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Top-Big LR110000-Big PDW3B2 Derrick-3.0', 'last_number': 3.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Offload-LB 75-Hydraulic-1.0', 'last_number': 1.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'erection_selected_detailed_data: Operation-Crane name-Boom system-Operational construct days over time construct days', 'value': 'Base-LR1750/2-SX3D4F2B Derrick (walk)-2.0', 'last_number': 2.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Nacelle - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Hub - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 1 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 2 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Blade 3 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 1 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 2 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 3 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 4 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 5 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 6 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 7 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 8 - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 9 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 10 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'component_name_topvbase: Operation - Top or Base', 'value': 'Tower 11 - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'Big LR110000 - Big PDW3B2 Derrick - Top', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LB 75 - Hydraulic - Offload', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_choice: Crew name - Boom system - Operation', 'value': 'LR1750/2 - SX3D4F2B Derrick (walk) - Base', 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Equipment rental cost USD - 2452310.014545454', 'last_number': 2452310.014545454, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Equipment rental cost USD - 58546.0706713781', 'last_number': 58546.0706713781, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Equipment rental cost USD - 1167711.4293902244', 'last_number': 1167711.4293902244, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Fuel cost USD - 72540.0', 'last_number': 72540.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Fuel cost USD - 5544.0', 'last_number': 5544.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Fuel cost USD - 35343.0', 'last_number': 35343.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Labor cost USD without management - 3746069.9467044845', 'last_number': 3746069.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Labor cost USD without management - 882394.6829100354', 'last_number': 882394.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Labor cost USD without management - 2311965.0408416493', 'last_number': 2311965.0408416493, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Mobilization cost USD - 1621827.2', 'last_number': 1621827.2, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Mobilization cost USD - 32160.0', 'last_number': 32160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Mobilization cost USD - 720386.0', 'last_number': 720386.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for hourly labor (non-management) USD - 3228741.9467044845', 'last_number': 3228741.9467044845, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for hourly labor (non-management) USD - 757234.6829100354', 'last_number': 757234.6829100354, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for hourly labor (non-management) USD - 1992807.040841649', 'last_number': 1992807.040841649, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Subtotal for per diem labor (non-management) USD - 517328.0', 'last_number': 517328.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LB 75-Hydraulic-Offload - Subtotal for per diem labor (non-management) USD - 125160.0', 'last_number': 125160.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'LR1750/2-SX3D4F2B Derrick (walk)-Base - Subtotal for per diem labor (non-management) USD - 319158.0', 'last_number': 319158.0, 'project_id_with_serial': 'WISDEM', 'module': 'ErectionCost'}, {'unit': '', 'type': 'dataframe', 'variable_df_key_col_name': 'crane_data_output: crane_boom_operation_concat - variable - value', 'value': 'Big LR110000-Big PDW3B2 Derrick-Top - Total cost USD - 7892747.161249938', 'last_number': 7892747.161249938, 'project_id_with_serial': 'WISDEM', 'mod</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>The details from the run of LandBOSSE. This includes some costs, but mostly other things</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
           <t>landbosse.erection_crane_choice</t>
         </is>
       </c>
-      <c r="B1446" t="inlineStr">
+      <c r="B1449" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1446" t="inlineStr">
+      <c r="C1449" t="inlineStr">
         <is>
           <t xml:space="preserve">     Crane name              Boom system Operation
 0  Big LR110000       Big PDW3B2 Derrick       Top
@@ -37920,24 +38264,24 @@
 2      LR1750/2  SX3D4F2B Derrick (walk)      Base</t>
         </is>
       </c>
-      <c r="D1446" t="inlineStr">
+      <c r="D1449" t="inlineStr">
         <is>
           <t>The crane choices for erection.</t>
         </is>
       </c>
     </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
         <is>
           <t>landbosse.erection_component_name_topvbase</t>
         </is>
       </c>
-      <c r="B1447" t="inlineStr">
+      <c r="B1450" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1447" t="inlineStr">
+      <c r="C1450" t="inlineStr">
         <is>
           <t xml:space="preserve">  Component Operation
 0   Nacelle       Top
@@ -37958,24 +38302,24 @@
 5  Tower 11       Top</t>
         </is>
       </c>
-      <c r="D1447" t="inlineStr">
+      <c r="D1450" t="inlineStr">
         <is>
           <t>List of components and whether they are a topping or base operation</t>
         </is>
       </c>
     </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
         <is>
           <t>landbosse.erection_components</t>
         </is>
       </c>
-      <c r="B1448" t="inlineStr">
+      <c r="B1451" t="inlineStr">
         <is>
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="C1448" t="inlineStr">
+      <c r="C1451" t="inlineStr">
         <is>
           <t xml:space="preserve">  Component  Mass tonne  ...  Multiplier tower drag  Operation
 0   Nacelle  234.082584  ...                      0        Top
@@ -37997,47 +38341,47 @@
 [16 rows x 14 columns]</t>
         </is>
       </c>
-      <c r="D1448" t="inlineStr">
+      <c r="D1451" t="inlineStr">
         <is>
           <t>List of components with their values modified from the defaults.</t>
         </is>
       </c>
     </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
         <is>
           <t>financese.lcoe</t>
         </is>
       </c>
-      <c r="B1449" t="inlineStr">
+      <c r="B1452" t="inlineStr">
         <is>
           <t>USD/kW/h</t>
         </is>
       </c>
-      <c r="C1449" t="inlineStr">
+      <c r="C1452" t="inlineStr">
         <is>
           <t>[0.03844215]</t>
         </is>
       </c>
-      <c r="D1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
+      <c r="D1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
         <is>
           <t>financese.plant_aep</t>
         </is>
       </c>
-      <c r="B1450" t="inlineStr">
+      <c r="B1453" t="inlineStr">
         <is>
           <t>USD/kW/h</t>
         </is>
       </c>
-      <c r="C1450" t="inlineStr">
+      <c r="C1453" t="inlineStr">
         <is>
           <t>[2.52371058e+09]</t>
         </is>
       </c>
-      <c r="D1450" t="inlineStr"/>
+      <c r="D1453" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
